--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1066093.011040308</v>
+        <v>1061777.012936315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21939500.90033927</v>
+        <v>21939500.90033928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7083200.67145812</v>
+        <v>7083200.671458121</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>6.118967867844566</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -670,7 +670,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="F2" t="n">
-        <v>9.146429456440496</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>9.146429456440488</v>
       </c>
       <c r="U3" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="H4" t="n">
-        <v>8.056175065232779</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="S4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8.056175065232779</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="F7" t="n">
         <v>9.146429456440488</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="I9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="G10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="I10" t="n">
         <v>9.146429456440488</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>248.0766575287718</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>8.951593617165784</v>
@@ -1423,19 +1423,19 @@
         <v>88.68920227461291</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>219.7683388261879</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1505,7 +1505,7 @@
         <v>153.4670072949422</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3074207420657</v>
+        <v>195.307420742066</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>90.5935153330765</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I13" t="n">
-        <v>51.72614469011553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.37904988423619</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S13" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3483097829142</v>
@@ -1587,13 +1587,13 @@
         <v>279.9215922535905</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U14" t="n">
-        <v>27.70627938889197</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>316.5913336848851</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>51.72614469011553</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>169.0085450628485</v>
+        <v>102.1289250066855</v>
       </c>
       <c r="T16" t="n">
         <v>233.3483097829142</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>44.13585658889334</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>89.3078472449193</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,19 +2004,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6873688583576</v>
+        <v>96.10519457435197</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V19" t="n">
-        <v>235.2745018701226</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>336.6214149620787</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>238.960871275486</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2250,7 +2250,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>161.2683823103469</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>164.6873688583576</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9215922535905</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>76.07680234568234</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>282.0319683554215</v>
       </c>
       <c r="D23" t="n">
-        <v>67.87551739349726</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H23" t="n">
         <v>287.4678909265675</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2490,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6873688583576</v>
+        <v>78.30801257728734</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U25" t="n">
-        <v>240.6294280005005</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.8619474527791</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>136.1518433027651</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>254.3310661988683</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6873688583576</v>
+        <v>45.32487137038376</v>
       </c>
       <c r="H28" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>88.40227130842214</v>
@@ -2763,10 +2763,10 @@
         <v>44.3790498842362</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T28" t="n">
-        <v>142.8004940118872</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U28" t="n">
         <v>279.9215922535905</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>402.6557434633873</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>313.8323442272817</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.2488064316015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>140.1938633459013</v>
       </c>
       <c r="I31" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>169.0085450628485</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U31" t="n">
-        <v>202.5739072016246</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>107.1389988477101</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3031,10 +3031,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.5491291716268</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3046,10 +3046,10 @@
         <v>402.6557434633873</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>147.1698339518911</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>40.23975497018878</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>19.38110381923009</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I34" t="n">
         <v>88.40227130842214</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>169.0085450628485</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>304.7727141818403</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>349.89092196896</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>72.86148516186189</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T37" t="n">
-        <v>171.1799124758944</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U37" t="n">
         <v>279.9215922535905</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>360.2965433216701</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>166.7890205675915</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3663,16 +3663,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>51.72614469011553</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>158.917935568059</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.3483097829142</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>209.5126849066332</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.2939531812519</v>
       </c>
       <c r="U41" t="n">
-        <v>18.03520966521371</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3878,7 +3878,7 @@
         <v>195.3074207420657</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
         <v>211.1008365810345</v>
@@ -3903,22 +3903,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.6873688583576</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>169.0085450628485</v>
@@ -3954,19 +3954,19 @@
         <v>233.3483097829142</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9215922535905</v>
+        <v>41.95697925568393</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.74860322246036</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>240.1150156890239</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.951593617165784</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>341.3824781090127</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.1938633459013</v>
+        <v>20.88794331491641</v>
       </c>
       <c r="I46" t="n">
-        <v>88.40227130842214</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U46" t="n">
-        <v>153.6280005490601</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.40494220167654</v>
+        <v>30.40494220167653</v>
       </c>
       <c r="C2" t="n">
-        <v>24.32075555535073</v>
+        <v>24.32075555535072</v>
       </c>
       <c r="D2" t="n">
-        <v>23.89722968881534</v>
+        <v>23.89722968881533</v>
       </c>
       <c r="E2" t="n">
-        <v>14.65841205604717</v>
+        <v>14.65841205604716</v>
       </c>
       <c r="F2" t="n">
         <v>5.419594423278988</v>
@@ -4330,16 +4330,16 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J2" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K2" t="n">
-        <v>18.47578750200979</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="L2" t="n">
         <v>18.47578750200979</v>
       </c>
       <c r="M2" t="n">
-        <v>18.47578750200979</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="N2" t="n">
         <v>27.53075266388587</v>
@@ -4348,10 +4348,10 @@
         <v>27.53075266388587</v>
       </c>
       <c r="P2" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R2" t="n">
         <v>36.58571782576195</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7317143565152391</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="I3" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="L3" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="M3" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="N3" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="O3" t="n">
-        <v>18.84164468026741</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="P3" t="n">
-        <v>27.89660984214349</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="Q3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R3" t="n">
         <v>36.58571782576195</v>
@@ -4442,19 +4442,19 @@
         <v>27.34690019299378</v>
       </c>
       <c r="U3" t="n">
-        <v>19.20934962205158</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="V3" t="n">
-        <v>9.97053198928341</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="W3" t="n">
-        <v>9.97053198928341</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="X3" t="n">
-        <v>9.97053198928341</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.97053198928341</v>
+        <v>27.34690019299378</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="C4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="D4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="E4" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F4" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="G4" t="n">
-        <v>8.86926492745744</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="I4" t="n">
         <v>0.7317143565152391</v>
@@ -4500,13 +4500,13 @@
         <v>9.786679518391322</v>
       </c>
       <c r="N4" t="n">
+        <v>9.786679518391322</v>
+      </c>
+      <c r="O4" t="n">
         <v>18.47578750200979</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="P4" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="Q4" t="n">
         <v>36.58571782576195</v>
@@ -4515,25 +4515,25 @@
         <v>27.34690019299378</v>
       </c>
       <c r="S4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="T4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="V4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="W4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="X4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.40494220167654</v>
+        <v>30.40494220167653</v>
       </c>
       <c r="C5" t="n">
-        <v>24.32075555535073</v>
+        <v>24.32075555535072</v>
       </c>
       <c r="D5" t="n">
         <v>23.89722968881533</v>
@@ -4567,10 +4567,10 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J5" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K5" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="L5" t="n">
         <v>18.47578750200979</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7317143565152391</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7317143565152391</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7317143565152391</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="I6" t="n">
         <v>0.7317143565152391</v>
@@ -4652,16 +4652,16 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="L6" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="M6" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="N6" t="n">
-        <v>18.84164468026741</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="O6" t="n">
-        <v>27.53075266388587</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="P6" t="n">
         <v>27.53075266388587</v>
@@ -4673,25 +4673,25 @@
         <v>36.58571782576195</v>
       </c>
       <c r="S6" t="n">
-        <v>28.44816725481975</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="T6" t="n">
-        <v>28.44816725481975</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U6" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V6" t="n">
-        <v>19.20934962205158</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="W6" t="n">
-        <v>19.20934962205158</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="X6" t="n">
-        <v>9.97053198928341</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.97053198928341</v>
+        <v>27.34690019299378</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="C7" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="D7" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="E7" t="n">
         <v>9.97053198928341</v>
@@ -4728,49 +4728,49 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="K7" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L7" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="M7" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.420822340133704</v>
+      </c>
+      <c r="O7" t="n">
         <v>18.47578750200979</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="O7" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="P7" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="Q7" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="R7" t="n">
-        <v>36.58571782576195</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="S7" t="n">
-        <v>27.34690019299378</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="T7" t="n">
-        <v>27.34690019299378</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="U7" t="n">
-        <v>27.34690019299378</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="V7" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="W7" t="n">
-        <v>27.34690019299378</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="X7" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
     </row>
     <row r="8">
@@ -4813,19 +4813,19 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="O8" t="n">
-        <v>9.420822340133704</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="P8" t="n">
-        <v>18.47578750200979</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="R8" t="n">
         <v>36.58571782576195</v>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="C9" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="D9" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="E9" t="n">
-        <v>9.97053198928341</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="F9" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="G9" t="n">
         <v>9.97053198928341</v>
       </c>
       <c r="H9" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I9" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J9" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K9" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L9" t="n">
-        <v>18.84164468026741</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="M9" t="n">
-        <v>18.84164468026741</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="N9" t="n">
-        <v>18.84164468026741</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="O9" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="P9" t="n">
         <v>27.53075266388587</v>
@@ -4913,22 +4913,22 @@
         <v>36.58571782576195</v>
       </c>
       <c r="T9" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U9" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V9" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="W9" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="X9" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="C10" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="D10" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="E10" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="F10" t="n">
-        <v>9.97053198928341</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="G10" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="H10" t="n">
         <v>9.97053198928341</v>
@@ -4962,7 +4962,7 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J10" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K10" t="n">
         <v>9.786679518391322</v>
@@ -4971,16 +4971,16 @@
         <v>9.786679518391322</v>
       </c>
       <c r="M10" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N10" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="O10" t="n">
+        <v>18.47578750200979</v>
+      </c>
+      <c r="P10" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="O10" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="P10" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="Q10" t="n">
         <v>36.58571782576195</v>
@@ -5004,10 +5004,10 @@
         <v>36.58571782576195</v>
       </c>
       <c r="X10" t="n">
-        <v>28.44816725481975</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1540.070906184137</v>
+        <v>463.9940818785899</v>
       </c>
       <c r="C11" t="n">
-        <v>1540.070906184137</v>
+        <v>463.9940818785899</v>
       </c>
       <c r="D11" t="n">
-        <v>1135.606976277197</v>
+        <v>463.9940818785899</v>
       </c>
       <c r="E11" t="n">
-        <v>721.2667607940939</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="F11" t="n">
-        <v>300.2363487477814</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="G11" t="n">
-        <v>300.2363487477814</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="H11" t="n">
         <v>49.65386639548662</v>
@@ -5047,19 +5047,19 @@
         <v>296.5946979817538</v>
       </c>
       <c r="L11" t="n">
-        <v>539.5222406053639</v>
+        <v>512.2198388934999</v>
       </c>
       <c r="M11" t="n">
-        <v>792.272878551285</v>
+        <v>764.9704768394209</v>
       </c>
       <c r="N11" t="n">
-        <v>1050.981878455255</v>
+        <v>1023.679476743391</v>
       </c>
       <c r="O11" t="n">
-        <v>1553.55355488483</v>
+        <v>1262.57026842396</v>
       </c>
       <c r="P11" t="n">
-        <v>1743.468413302518</v>
+        <v>1452.485126841648</v>
       </c>
       <c r="Q11" t="n">
         <v>1866.576600404207</v>
@@ -5071,22 +5071,22 @@
         <v>1941.007579236046</v>
       </c>
       <c r="T11" t="n">
-        <v>1941.007579236046</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="U11" t="n">
-        <v>1941.007579236046</v>
+        <v>1470.679276831885</v>
       </c>
       <c r="V11" t="n">
-        <v>1941.007579236046</v>
+        <v>1470.679276831885</v>
       </c>
       <c r="W11" t="n">
-        <v>1941.007579236046</v>
+        <v>1086.918975967053</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.007579236046</v>
+        <v>864.9307549304998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1540.070906184137</v>
+        <v>463.9940818785899</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>687.2588649679232</v>
+        <v>687.258864967923</v>
       </c>
       <c r="C12" t="n">
-        <v>553.2637937168689</v>
+        <v>553.2637937168687</v>
       </c>
       <c r="D12" t="n">
-        <v>436.3666359362612</v>
+        <v>436.3666359362611</v>
       </c>
       <c r="E12" t="n">
-        <v>315.8738199285892</v>
+        <v>315.8738199285891</v>
       </c>
       <c r="F12" t="n">
-        <v>206.9139401110938</v>
+        <v>206.9139401110937</v>
       </c>
       <c r="G12" t="n">
         <v>100.9967633533972</v>
@@ -5117,28 +5117,28 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J12" t="n">
-        <v>89.10798069845492</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K12" t="n">
-        <v>203.6482919122559</v>
+        <v>508.478861245244</v>
       </c>
       <c r="L12" t="n">
-        <v>376.4225046593969</v>
+        <v>681.253073992385</v>
       </c>
       <c r="M12" t="n">
-        <v>878.9941810889716</v>
+        <v>890.7119626449232</v>
       </c>
       <c r="N12" t="n">
-        <v>1381.565857518546</v>
+        <v>1111.550106006596</v>
       </c>
       <c r="O12" t="n">
-        <v>1710.545002897524</v>
+        <v>1304.574845893751</v>
       </c>
       <c r="P12" t="n">
-        <v>1857.634482190108</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q12" t="n">
         <v>1935.742629235509</v>
@@ -5162,10 +5162,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X12" t="n">
-        <v>986.9638572396798</v>
+        <v>986.9638572396797</v>
       </c>
       <c r="Y12" t="n">
-        <v>827.5618976035098</v>
+        <v>827.5618976035097</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.86048364089041</v>
+        <v>775.8057929253704</v>
       </c>
       <c r="C13" t="n">
-        <v>92.86048364089041</v>
+        <v>604.7124204870869</v>
       </c>
       <c r="D13" t="n">
-        <v>92.86048364089041</v>
+        <v>604.7124204870869</v>
       </c>
       <c r="E13" t="n">
-        <v>92.86048364089041</v>
+        <v>513.203819140545</v>
       </c>
       <c r="F13" t="n">
-        <v>92.86048364089041</v>
+        <v>348.5726932511362</v>
       </c>
       <c r="G13" t="n">
-        <v>92.86048364089041</v>
+        <v>182.2218156164316</v>
       </c>
       <c r="H13" t="n">
-        <v>92.86048364089041</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I13" t="n">
         <v>40.61185264077371</v>
@@ -5208,13 +5208,13 @@
         <v>493.6915633516677</v>
       </c>
       <c r="M13" t="n">
-        <v>905.2906934550454</v>
+        <v>921.1524840451984</v>
       </c>
       <c r="N13" t="n">
-        <v>1321.040327555575</v>
+        <v>1336.902118145729</v>
       </c>
       <c r="O13" t="n">
-        <v>1705.212945386905</v>
+        <v>1721.074735977058</v>
       </c>
       <c r="P13" t="n">
         <v>2017.515485446435</v>
@@ -5226,25 +5226,25 @@
         <v>1985.765308923296</v>
       </c>
       <c r="S13" t="n">
-        <v>1815.04960683961</v>
+        <v>1985.765308923296</v>
       </c>
       <c r="T13" t="n">
-        <v>1579.344243422525</v>
+        <v>1750.059945506211</v>
       </c>
       <c r="U13" t="n">
-        <v>1296.59516033809</v>
+        <v>1467.310862421776</v>
       </c>
       <c r="V13" t="n">
-        <v>1022.709415277612</v>
+        <v>1467.310862421776</v>
       </c>
       <c r="W13" t="n">
-        <v>743.6397507864867</v>
+        <v>1188.24119793065</v>
       </c>
       <c r="X13" t="n">
-        <v>505.2958886461701</v>
+        <v>1188.24119793065</v>
       </c>
       <c r="Y13" t="n">
-        <v>280.5601900349348</v>
+        <v>963.5054993194148</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>868.3652378824269</v>
+        <v>340.0254733920195</v>
       </c>
       <c r="C14" t="n">
-        <v>868.3652378824269</v>
+        <v>340.0254733920195</v>
       </c>
       <c r="D14" t="n">
-        <v>868.3652378824269</v>
+        <v>340.0254733920195</v>
       </c>
       <c r="E14" t="n">
-        <v>868.3652378824269</v>
+        <v>340.0254733920195</v>
       </c>
       <c r="F14" t="n">
-        <v>447.3348258361144</v>
+        <v>340.0254733920195</v>
       </c>
       <c r="G14" t="n">
-        <v>40.61185264077371</v>
+        <v>340.0254733920195</v>
       </c>
       <c r="H14" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I14" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J14" t="n">
-        <v>134.83280890913</v>
+        <v>461.6086357968591</v>
       </c>
       <c r="K14" t="n">
-        <v>296.5946979817538</v>
+        <v>623.3705248694829</v>
       </c>
       <c r="L14" t="n">
-        <v>512.2198388934999</v>
+        <v>838.9956657812288</v>
       </c>
       <c r="M14" t="n">
-        <v>939.0867538508272</v>
+        <v>1091.74630372715</v>
       </c>
       <c r="N14" t="n">
-        <v>1441.658430280402</v>
+        <v>1350.45530363112</v>
       </c>
       <c r="O14" t="n">
-        <v>1680.549221960971</v>
+        <v>1589.346095311688</v>
       </c>
       <c r="P14" t="n">
-        <v>1870.464080378659</v>
+        <v>1779.260953729377</v>
       </c>
       <c r="Q14" t="n">
         <v>1993.572267480348</v>
@@ -5305,25 +5305,25 @@
         <v>2030.592632038686</v>
       </c>
       <c r="S14" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236046</v>
       </c>
       <c r="T14" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699428</v>
       </c>
       <c r="U14" t="n">
-        <v>2002.606491241825</v>
+        <v>1470.679276831885</v>
       </c>
       <c r="V14" t="n">
-        <v>1652.768936578306</v>
+        <v>1470.679276831885</v>
       </c>
       <c r="W14" t="n">
-        <v>1269.008635713474</v>
+        <v>1470.679276831885</v>
       </c>
       <c r="X14" t="n">
-        <v>868.3652378824269</v>
+        <v>1070.035879000837</v>
       </c>
       <c r="Y14" t="n">
-        <v>868.3652378824269</v>
+        <v>750.2466530565089</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J15" t="n">
-        <v>89.10798069845492</v>
+        <v>332.7763846730882</v>
       </c>
       <c r="K15" t="n">
-        <v>203.6482919122559</v>
+        <v>508.478861245244</v>
       </c>
       <c r="L15" t="n">
-        <v>376.4225046593969</v>
+        <v>681.253073992385</v>
       </c>
       <c r="M15" t="n">
-        <v>878.9941810889716</v>
+        <v>890.7119626449232</v>
       </c>
       <c r="N15" t="n">
-        <v>1207.973326467949</v>
+        <v>1111.550106006596</v>
       </c>
       <c r="O15" t="n">
-        <v>1710.545002897524</v>
+        <v>1304.574845893751</v>
       </c>
       <c r="P15" t="n">
-        <v>1857.634482190108</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q15" t="n">
         <v>1935.742629235509</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.86048364089041</v>
+        <v>205.2429785301825</v>
       </c>
       <c r="C16" t="n">
-        <v>40.61185264077371</v>
+        <v>205.2429785301825</v>
       </c>
       <c r="D16" t="n">
-        <v>40.61185264077371</v>
+        <v>205.2429785301825</v>
       </c>
       <c r="E16" t="n">
-        <v>40.61185264077371</v>
+        <v>205.2429785301825</v>
       </c>
       <c r="F16" t="n">
         <v>40.61185264077371</v>
@@ -5439,49 +5439,49 @@
         <v>117.0244497926567</v>
       </c>
       <c r="K16" t="n">
-        <v>167.7239994110467</v>
+        <v>374.0041929967609</v>
       </c>
       <c r="L16" t="n">
-        <v>558.6929269830041</v>
+        <v>764.9731205687183</v>
       </c>
       <c r="M16" t="n">
-        <v>986.153847676535</v>
+        <v>1192.434041262249</v>
       </c>
       <c r="N16" t="n">
-        <v>1321.040327555575</v>
+        <v>1509.841126768479</v>
       </c>
       <c r="O16" t="n">
-        <v>1705.212945386905</v>
+        <v>1578.938985181068</v>
       </c>
       <c r="P16" t="n">
-        <v>2017.515485446435</v>
+        <v>1891.241525240598</v>
       </c>
       <c r="Q16" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="R16" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S16" t="n">
-        <v>1815.04960683961</v>
+        <v>1927.432101728902</v>
       </c>
       <c r="T16" t="n">
-        <v>1579.344243422525</v>
+        <v>1691.726738311817</v>
       </c>
       <c r="U16" t="n">
-        <v>1296.59516033809</v>
+        <v>1408.977655227382</v>
       </c>
       <c r="V16" t="n">
-        <v>1022.709415277612</v>
+        <v>1135.091910166904</v>
       </c>
       <c r="W16" t="n">
-        <v>743.6397507864867</v>
+        <v>856.0222456757788</v>
       </c>
       <c r="X16" t="n">
-        <v>505.2958886461701</v>
+        <v>617.6783835354622</v>
       </c>
       <c r="Y16" t="n">
-        <v>280.5601900349348</v>
+        <v>392.9426849242269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.1935259628882</v>
+        <v>1287.53184232387</v>
       </c>
       <c r="C17" t="n">
-        <v>85.1935259628882</v>
+        <v>877.4072516371398</v>
       </c>
       <c r="D17" t="n">
-        <v>40.61185264077371</v>
+        <v>877.4072516371398</v>
       </c>
       <c r="E17" t="n">
-        <v>40.61185264077371</v>
+        <v>877.4072516371398</v>
       </c>
       <c r="F17" t="n">
-        <v>40.61185264077371</v>
+        <v>456.3768395908273</v>
       </c>
       <c r="G17" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548663</v>
       </c>
       <c r="H17" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548663</v>
       </c>
       <c r="I17" t="n">
-        <v>40.61185264077371</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="J17" t="n">
         <v>134.83280890913</v>
@@ -5527,40 +5527,40 @@
         <v>764.9704768394209</v>
       </c>
       <c r="N17" t="n">
-        <v>1267.542153268996</v>
+        <v>1023.679476743391</v>
       </c>
       <c r="O17" t="n">
-        <v>1680.549221960971</v>
+        <v>1262.57026842396</v>
       </c>
       <c r="P17" t="n">
-        <v>1870.464080378659</v>
+        <v>1452.485126841648</v>
       </c>
       <c r="Q17" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R17" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="S17" t="n">
-        <v>2030.592632038686</v>
+        <v>1941.007579236047</v>
       </c>
       <c r="T17" t="n">
-        <v>2030.592632038686</v>
+        <v>1727.579343699429</v>
       </c>
       <c r="U17" t="n">
-        <v>2030.592632038686</v>
+        <v>1637.369396987389</v>
       </c>
       <c r="V17" t="n">
-        <v>1680.755077375166</v>
+        <v>1287.53184232387</v>
       </c>
       <c r="W17" t="n">
-        <v>1296.994776510335</v>
+        <v>1287.53184232387</v>
       </c>
       <c r="X17" t="n">
-        <v>896.3513786792876</v>
+        <v>1287.53184232387</v>
       </c>
       <c r="Y17" t="n">
-        <v>495.4147056273777</v>
+        <v>1287.53184232387</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>687.258864967923</v>
+        <v>687.2588649679232</v>
       </c>
       <c r="C18" t="n">
-        <v>553.2637937168687</v>
+        <v>553.2637937168689</v>
       </c>
       <c r="D18" t="n">
-        <v>436.3666359362611</v>
+        <v>436.3666359362612</v>
       </c>
       <c r="E18" t="n">
-        <v>315.8738199285891</v>
+        <v>315.8738199285892</v>
       </c>
       <c r="F18" t="n">
-        <v>206.9139401110937</v>
+        <v>206.9139401110938</v>
       </c>
       <c r="G18" t="n">
         <v>100.9967633533972</v>
       </c>
       <c r="H18" t="n">
-        <v>40.61185264077371</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="I18" t="n">
-        <v>56.48202817919477</v>
+        <v>56.48202817919478</v>
       </c>
       <c r="J18" t="n">
-        <v>104.978156236876</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K18" t="n">
-        <v>337.3896010465869</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L18" t="n">
-        <v>510.1638137937279</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M18" t="n">
-        <v>719.6227024462661</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N18" t="n">
-        <v>940.4608458079393</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O18" t="n">
-        <v>1443.032522237514</v>
+        <v>1259.282856073817</v>
       </c>
       <c r="P18" t="n">
-        <v>1945.604198667089</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q18" t="n">
-        <v>2023.712345712491</v>
+        <v>1935.74262923551</v>
       </c>
       <c r="R18" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S18" t="n">
         <v>1942.531936429008</v>
@@ -5636,10 +5636,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X18" t="n">
-        <v>986.9638572396797</v>
+        <v>986.9638572396798</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.5618976035097</v>
+        <v>827.5618976035098</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>863.092688411941</v>
+        <v>137.6878067562808</v>
       </c>
       <c r="C19" t="n">
-        <v>691.9993159736575</v>
+        <v>137.6878067562808</v>
       </c>
       <c r="D19" t="n">
-        <v>532.5046712965676</v>
+        <v>137.6878067562808</v>
       </c>
       <c r="E19" t="n">
-        <v>371.5938561648871</v>
+        <v>137.6878067562808</v>
       </c>
       <c r="F19" t="n">
-        <v>206.9627302754783</v>
+        <v>137.6878067562808</v>
       </c>
       <c r="G19" t="n">
-        <v>40.61185264077371</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="H19" t="n">
-        <v>40.61185264077371</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="I19" t="n">
-        <v>40.61185264077371</v>
+        <v>40.61185264077372</v>
       </c>
       <c r="J19" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K19" t="n">
-        <v>102.7226357797103</v>
+        <v>374.0041929967609</v>
       </c>
       <c r="L19" t="n">
-        <v>493.6915633516677</v>
+        <v>738.7272562346327</v>
       </c>
       <c r="M19" t="n">
-        <v>905.2906934550454</v>
+        <v>1166.188176928164</v>
       </c>
       <c r="N19" t="n">
-        <v>1321.040327555575</v>
+        <v>1581.937811028694</v>
       </c>
       <c r="O19" t="n">
-        <v>1705.212945386905</v>
+        <v>1966.110428860024</v>
       </c>
       <c r="P19" t="n">
-        <v>2017.515485446435</v>
+        <v>2017.515485446436</v>
       </c>
       <c r="Q19" t="n">
         <v>2030.592632038686</v>
@@ -5700,25 +5700,25 @@
         <v>2030.592632038686</v>
       </c>
       <c r="S19" t="n">
-        <v>2030.592632038686</v>
+        <v>1859.876929955001</v>
       </c>
       <c r="T19" t="n">
-        <v>2030.592632038686</v>
+        <v>1624.171566537916</v>
       </c>
       <c r="U19" t="n">
-        <v>2030.592632038686</v>
+        <v>1341.422483453481</v>
       </c>
       <c r="V19" t="n">
-        <v>1792.941620048663</v>
+        <v>1067.536738393003</v>
       </c>
       <c r="W19" t="n">
-        <v>1513.871955557537</v>
+        <v>788.467073901877</v>
       </c>
       <c r="X19" t="n">
-        <v>1275.528093417221</v>
+        <v>550.1232117615605</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.792394805985</v>
+        <v>325.3875131503252</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2030.592632038686</v>
+        <v>281.9864700907596</v>
       </c>
       <c r="C20" t="n">
-        <v>1620.468041351956</v>
+        <v>281.9864700907596</v>
       </c>
       <c r="D20" t="n">
-        <v>1216.004111445016</v>
+        <v>281.9864700907596</v>
       </c>
       <c r="E20" t="n">
-        <v>801.6638959619131</v>
+        <v>281.9864700907596</v>
       </c>
       <c r="F20" t="n">
-        <v>380.6334839156007</v>
+        <v>281.9864700907596</v>
       </c>
       <c r="G20" t="n">
-        <v>40.61185264077371</v>
+        <v>281.9864700907596</v>
       </c>
       <c r="H20" t="n">
         <v>40.61185264077371</v>
@@ -5782,22 +5782,22 @@
         <v>2030.592632038686</v>
       </c>
       <c r="T20" t="n">
-        <v>2030.592632038686</v>
+        <v>1817.164396502068</v>
       </c>
       <c r="U20" t="n">
-        <v>2030.592632038686</v>
+        <v>1817.164396502068</v>
       </c>
       <c r="V20" t="n">
-        <v>2030.592632038686</v>
+        <v>1467.326841838548</v>
       </c>
       <c r="W20" t="n">
-        <v>2030.592632038686</v>
+        <v>1083.566540973717</v>
       </c>
       <c r="X20" t="n">
-        <v>2030.592632038686</v>
+        <v>682.9231431426695</v>
       </c>
       <c r="Y20" t="n">
-        <v>2030.592632038686</v>
+        <v>281.9864700907596</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>687.258864967923</v>
+        <v>687.2588649679227</v>
       </c>
       <c r="C21" t="n">
-        <v>553.2637937168687</v>
+        <v>553.2637937168685</v>
       </c>
       <c r="D21" t="n">
-        <v>436.3666359362611</v>
+        <v>436.366635936261</v>
       </c>
       <c r="E21" t="n">
-        <v>315.8738199285891</v>
+        <v>315.873819928589</v>
       </c>
       <c r="F21" t="n">
-        <v>206.9139401110937</v>
+        <v>206.9139401110936</v>
       </c>
       <c r="G21" t="n">
         <v>100.9967633533972</v>
@@ -5834,13 +5834,13 @@
         <v>348.6465602115093</v>
       </c>
       <c r="K21" t="n">
-        <v>558.9668211120262</v>
+        <v>558.9668211120267</v>
       </c>
       <c r="L21" t="n">
-        <v>731.7410338591671</v>
+        <v>731.7410338591676</v>
       </c>
       <c r="M21" t="n">
-        <v>941.1999225117054</v>
+        <v>941.1999225117058</v>
       </c>
       <c r="N21" t="n">
         <v>1162.038065873379</v>
@@ -5855,7 +5855,7 @@
         <v>1935.742629235509</v>
       </c>
       <c r="R21" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S21" t="n">
         <v>1942.531936429008</v>
@@ -5873,10 +5873,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X21" t="n">
-        <v>986.9638572396797</v>
+        <v>986.9638572396793</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.5618976035097</v>
+        <v>827.5618976035094</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>861.3589183915697</v>
+        <v>691.9993159736575</v>
       </c>
       <c r="C22" t="n">
-        <v>690.2655459532862</v>
+        <v>691.9993159736575</v>
       </c>
       <c r="D22" t="n">
-        <v>530.7709012761961</v>
+        <v>532.5046712965676</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8600861445156</v>
+        <v>371.5938561648871</v>
       </c>
       <c r="F22" t="n">
         <v>206.9627302754783</v>
@@ -5916,16 +5916,16 @@
         <v>374.0041929967609</v>
       </c>
       <c r="L22" t="n">
-        <v>450.9940093336952</v>
+        <v>764.9731205687183</v>
       </c>
       <c r="M22" t="n">
-        <v>878.4549300272261</v>
+        <v>847.4676917479635</v>
       </c>
       <c r="N22" t="n">
-        <v>1294.204564127756</v>
+        <v>1194.766367349738</v>
       </c>
       <c r="O22" t="n">
-        <v>1678.377181959086</v>
+        <v>1578.938985181068</v>
       </c>
       <c r="P22" t="n">
         <v>1891.241525240598</v>
@@ -5940,22 +5940,22 @@
         <v>2030.592632038686</v>
       </c>
       <c r="T22" t="n">
-        <v>1794.887268621601</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="U22" t="n">
-        <v>1512.138185537166</v>
+        <v>1747.843548954251</v>
       </c>
       <c r="V22" t="n">
-        <v>1512.138185537166</v>
+        <v>1473.957803893773</v>
       </c>
       <c r="W22" t="n">
-        <v>1512.138185537166</v>
+        <v>1194.888139402647</v>
       </c>
       <c r="X22" t="n">
-        <v>1273.794323396849</v>
+        <v>956.5442772623305</v>
       </c>
       <c r="Y22" t="n">
-        <v>1049.058624785614</v>
+        <v>879.6990223677019</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>818.1062669229702</v>
+        <v>1435.488226774808</v>
       </c>
       <c r="C23" t="n">
-        <v>407.9816762362403</v>
+        <v>1150.60745065822</v>
       </c>
       <c r="D23" t="n">
-        <v>339.4205475559401</v>
+        <v>746.1435207512808</v>
       </c>
       <c r="E23" t="n">
-        <v>339.4205475559401</v>
+        <v>746.1435207512808</v>
       </c>
       <c r="F23" t="n">
-        <v>339.4205475559401</v>
+        <v>746.1435207512808</v>
       </c>
       <c r="G23" t="n">
         <v>339.4205475559401</v>
       </c>
       <c r="H23" t="n">
-        <v>49.04894055940719</v>
+        <v>49.0489405594072</v>
       </c>
       <c r="I23" t="n">
-        <v>49.04894055940719</v>
+        <v>49.0489405594072</v>
       </c>
       <c r="J23" t="n">
-        <v>143.2698968277634</v>
+        <v>470.0457237154926</v>
       </c>
       <c r="K23" t="n">
-        <v>305.0317859003873</v>
+        <v>631.8076127881163</v>
       </c>
       <c r="L23" t="n">
-        <v>520.6569268121332</v>
+        <v>847.4327536998624</v>
       </c>
       <c r="M23" t="n">
-        <v>1127.637566234797</v>
+        <v>1100.183391645783</v>
       </c>
       <c r="N23" t="n">
-        <v>1386.346566138767</v>
+        <v>1358.892391549753</v>
       </c>
       <c r="O23" t="n">
-        <v>1625.237357819336</v>
+        <v>1597.783183230322</v>
       </c>
       <c r="P23" t="n">
-        <v>1815.152216237025</v>
+        <v>1787.698041648011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2348.554876489166</v>
+        <v>2288.430996335881</v>
       </c>
       <c r="R23" t="n">
         <v>2452.44702797036</v>
       </c>
       <c r="S23" t="n">
-        <v>2362.86197516772</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="T23" t="n">
-        <v>2362.86197516772</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="U23" t="n">
-        <v>2362.86197516772</v>
+        <v>2195.546961102817</v>
       </c>
       <c r="V23" t="n">
-        <v>2013.024420504201</v>
+        <v>1845.709406439297</v>
       </c>
       <c r="W23" t="n">
-        <v>1629.264119639369</v>
+        <v>1845.709406439297</v>
       </c>
       <c r="X23" t="n">
-        <v>1629.264119639369</v>
+        <v>1845.709406439297</v>
       </c>
       <c r="Y23" t="n">
-        <v>1228.32744658746</v>
+        <v>1845.709406439297</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>109.4338512720307</v>
       </c>
       <c r="H24" t="n">
-        <v>49.04894055940719</v>
+        <v>49.0489405594072</v>
       </c>
       <c r="I24" t="n">
-        <v>49.04894055940719</v>
+        <v>49.0489405594072</v>
       </c>
       <c r="J24" t="n">
-        <v>97.54506861708839</v>
+        <v>341.2134725917217</v>
       </c>
       <c r="K24" t="n">
-        <v>212.0853798308893</v>
+        <v>516.9159491638776</v>
       </c>
       <c r="L24" t="n">
-        <v>797.487539330783</v>
+        <v>689.6901619110185</v>
       </c>
       <c r="M24" t="n">
-        <v>1006.946427983321</v>
+        <v>899.1490505635568</v>
       </c>
       <c r="N24" t="n">
-        <v>1613.927067405985</v>
+        <v>1119.98719392523</v>
       </c>
       <c r="O24" t="n">
-        <v>1806.951807293139</v>
+        <v>1313.011933812384</v>
       </c>
       <c r="P24" t="n">
-        <v>1954.041286585722</v>
+        <v>1460.101413104967</v>
       </c>
       <c r="Q24" t="n">
-        <v>2032.149433631124</v>
+        <v>1944.179717154143</v>
       </c>
       <c r="R24" t="n">
         <v>2039.029719957319</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>960.8249998744354</v>
+        <v>784.2779012991905</v>
       </c>
       <c r="C25" t="n">
-        <v>789.7316274361519</v>
+        <v>613.184528860907</v>
       </c>
       <c r="D25" t="n">
-        <v>630.2369827590619</v>
+        <v>453.689884183817</v>
       </c>
       <c r="E25" t="n">
-        <v>469.3261676273813</v>
+        <v>292.7790690521365</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6950417379726</v>
+        <v>128.1479431627278</v>
       </c>
       <c r="G25" t="n">
-        <v>138.344164103268</v>
+        <v>49.0489405594072</v>
       </c>
       <c r="H25" t="n">
-        <v>138.344164103268</v>
+        <v>49.0489405594072</v>
       </c>
       <c r="I25" t="n">
-        <v>49.04894055940719</v>
+        <v>49.0489405594072</v>
       </c>
       <c r="J25" t="n">
         <v>125.46153771129</v>
       </c>
       <c r="K25" t="n">
-        <v>382.4412809153944</v>
+        <v>382.4412809153946</v>
       </c>
       <c r="L25" t="n">
-        <v>773.4102084873517</v>
+        <v>773.4102084873521</v>
       </c>
       <c r="M25" t="n">
-        <v>1200.871129180882</v>
+        <v>1200.871129180883</v>
       </c>
       <c r="N25" t="n">
         <v>1616.620763281413</v>
       </c>
       <c r="O25" t="n">
-        <v>2000.793381112742</v>
+        <v>2000.793381112743</v>
       </c>
       <c r="P25" t="n">
         <v>2313.095921172272</v>
@@ -6171,28 +6171,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R25" t="n">
-        <v>2407.619704854969</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="S25" t="n">
-        <v>2407.619704854969</v>
+        <v>2281.731325886675</v>
       </c>
       <c r="T25" t="n">
-        <v>2407.619704854969</v>
+        <v>2046.02596246959</v>
       </c>
       <c r="U25" t="n">
-        <v>2164.559676571635</v>
+        <v>1763.276879385155</v>
       </c>
       <c r="V25" t="n">
-        <v>1890.673931511157</v>
+        <v>1489.391134324677</v>
       </c>
       <c r="W25" t="n">
-        <v>1611.604267020032</v>
+        <v>1210.321469833551</v>
       </c>
       <c r="X25" t="n">
-        <v>1373.260404879715</v>
+        <v>971.9776076932349</v>
       </c>
       <c r="Y25" t="n">
-        <v>1148.52470626848</v>
+        <v>971.9776076932349</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>455.7719137547479</v>
+        <v>1010.206589355027</v>
       </c>
       <c r="C26" t="n">
-        <v>455.7719137547479</v>
+        <v>600.081998668297</v>
       </c>
       <c r="D26" t="n">
-        <v>455.7719137547479</v>
+        <v>195.6180687613576</v>
       </c>
       <c r="E26" t="n">
-        <v>455.7719137547479</v>
+        <v>195.6180687613576</v>
       </c>
       <c r="F26" t="n">
-        <v>455.7719137547479</v>
+        <v>195.6180687613576</v>
       </c>
       <c r="G26" t="n">
-        <v>49.04894055940719</v>
+        <v>195.6180687613576</v>
       </c>
       <c r="H26" t="n">
-        <v>49.04894055940719</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="I26" t="n">
         <v>49.04894055940719</v>
@@ -6238,40 +6238,40 @@
         <v>1100.183391645783</v>
       </c>
       <c r="N26" t="n">
-        <v>1358.892391549753</v>
+        <v>1707.164031068447</v>
       </c>
       <c r="O26" t="n">
-        <v>1597.783183230322</v>
+        <v>1946.054822749016</v>
       </c>
       <c r="P26" t="n">
-        <v>1787.698041648011</v>
+        <v>2135.969681166705</v>
       </c>
       <c r="Q26" t="n">
-        <v>2288.430996335881</v>
+        <v>2415.426663412022</v>
       </c>
       <c r="R26" t="n">
         <v>2452.44702797036</v>
       </c>
       <c r="S26" t="n">
-        <v>2362.86197516772</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="T26" t="n">
-        <v>2362.86197516772</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="U26" t="n">
-        <v>2105.961908300176</v>
+        <v>2195.546961102816</v>
       </c>
       <c r="V26" t="n">
-        <v>1756.124353636657</v>
+        <v>2195.546961102816</v>
       </c>
       <c r="W26" t="n">
-        <v>1372.364052771826</v>
+        <v>1811.786660237984</v>
       </c>
       <c r="X26" t="n">
-        <v>971.7206549407781</v>
+        <v>1411.143262406937</v>
       </c>
       <c r="Y26" t="n">
-        <v>570.7839818888682</v>
+        <v>1010.206589355027</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>49.04894055940719</v>
       </c>
       <c r="I27" t="n">
-        <v>49.04894055940719</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J27" t="n">
-        <v>97.54506861708839</v>
+        <v>357.0836481301427</v>
       </c>
       <c r="K27" t="n">
-        <v>212.0853798308893</v>
+        <v>471.6239593439437</v>
       </c>
       <c r="L27" t="n">
-        <v>384.8595925780303</v>
+        <v>644.3981720910847</v>
       </c>
       <c r="M27" t="n">
-        <v>979.133024508802</v>
+        <v>853.8570607436229</v>
       </c>
       <c r="N27" t="n">
-        <v>1199.971167870475</v>
+        <v>1074.695204105296</v>
       </c>
       <c r="O27" t="n">
-        <v>1806.951807293139</v>
+        <v>1267.71994399245</v>
       </c>
       <c r="P27" t="n">
-        <v>1954.041286585722</v>
+        <v>1460.101413104967</v>
       </c>
       <c r="Q27" t="n">
-        <v>2032.149433631124</v>
+        <v>1944.179717154143</v>
       </c>
       <c r="R27" t="n">
         <v>2039.029719957319</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>776.8930218290038</v>
+        <v>514.7148795725644</v>
       </c>
       <c r="C28" t="n">
-        <v>605.7996493907203</v>
+        <v>343.6215071342809</v>
       </c>
       <c r="D28" t="n">
-        <v>446.3050047136304</v>
+        <v>184.126862457191</v>
       </c>
       <c r="E28" t="n">
-        <v>446.3050047136304</v>
+        <v>184.126862457191</v>
       </c>
       <c r="F28" t="n">
-        <v>446.3050047136304</v>
+        <v>184.126862457191</v>
       </c>
       <c r="G28" t="n">
-        <v>279.9541270789258</v>
+        <v>138.344164103268</v>
       </c>
       <c r="H28" t="n">
         <v>138.344164103268</v>
@@ -6384,19 +6384,19 @@
         <v>49.04894055940719</v>
       </c>
       <c r="J28" t="n">
-        <v>125.4615377112901</v>
+        <v>125.46153771129</v>
       </c>
       <c r="K28" t="n">
-        <v>382.4412809153943</v>
+        <v>382.4412809153944</v>
       </c>
       <c r="L28" t="n">
-        <v>773.4102084873514</v>
+        <v>773.4102084873517</v>
       </c>
       <c r="M28" t="n">
         <v>1200.871129180882</v>
       </c>
       <c r="N28" t="n">
-        <v>1616.620763281412</v>
+        <v>1616.620763281413</v>
       </c>
       <c r="O28" t="n">
         <v>2000.793381112742</v>
@@ -6411,25 +6411,25 @@
         <v>2407.619704854969</v>
       </c>
       <c r="S28" t="n">
-        <v>2407.619704854969</v>
+        <v>2236.904002771284</v>
       </c>
       <c r="T28" t="n">
-        <v>2263.376781610639</v>
+        <v>2001.198639354199</v>
       </c>
       <c r="U28" t="n">
-        <v>1980.627698526204</v>
+        <v>1718.449556269764</v>
       </c>
       <c r="V28" t="n">
-        <v>1706.741953465726</v>
+        <v>1444.563811209286</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.6722889746</v>
+        <v>1165.494146718161</v>
       </c>
       <c r="X28" t="n">
-        <v>1189.328426834284</v>
+        <v>927.1502845778441</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.5927282230482</v>
+        <v>702.4145859666088</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2105.731061877833</v>
+        <v>1165.310125192724</v>
       </c>
       <c r="C29" t="n">
-        <v>1695.606471191103</v>
+        <v>755.1855345059937</v>
       </c>
       <c r="D29" t="n">
-        <v>1291.142541284164</v>
+        <v>755.1855345059937</v>
       </c>
       <c r="E29" t="n">
-        <v>876.8023258010603</v>
+        <v>755.1855345059937</v>
       </c>
       <c r="F29" t="n">
-        <v>455.7719137547479</v>
+        <v>755.1855345059937</v>
       </c>
       <c r="G29" t="n">
-        <v>49.04894055940719</v>
+        <v>348.462561310653</v>
       </c>
       <c r="H29" t="n">
-        <v>49.04894055940719</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="I29" t="n">
         <v>49.04894055940719</v>
@@ -6466,49 +6466,49 @@
         <v>470.0457237154926</v>
       </c>
       <c r="K29" t="n">
-        <v>1009.432380374298</v>
+        <v>631.8076127881163</v>
       </c>
       <c r="L29" t="n">
-        <v>1225.057521286044</v>
+        <v>847.4327536998624</v>
       </c>
       <c r="M29" t="n">
-        <v>1477.808159231965</v>
+        <v>1100.183391645783</v>
       </c>
       <c r="N29" t="n">
-        <v>1736.517159135935</v>
+        <v>1358.892391549753</v>
       </c>
       <c r="O29" t="n">
-        <v>1975.407950816504</v>
+        <v>1597.783183230322</v>
       </c>
       <c r="P29" t="n">
-        <v>2165.322809234192</v>
+        <v>1787.698041648011</v>
       </c>
       <c r="Q29" t="n">
-        <v>2288.430996335881</v>
+        <v>2321.100701900152</v>
       </c>
       <c r="R29" t="n">
         <v>2452.44702797036</v>
       </c>
       <c r="S29" t="n">
-        <v>2452.44702797036</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="T29" t="n">
-        <v>2452.44702797036</v>
+        <v>2149.433739631102</v>
       </c>
       <c r="U29" t="n">
-        <v>2452.44702797036</v>
+        <v>1892.533672763558</v>
       </c>
       <c r="V29" t="n">
-        <v>2452.44702797036</v>
+        <v>1892.533672763558</v>
       </c>
       <c r="W29" t="n">
-        <v>2452.44702797036</v>
+        <v>1575.531304857213</v>
       </c>
       <c r="X29" t="n">
-        <v>2452.44702797036</v>
+        <v>1575.531304857213</v>
       </c>
       <c r="Y29" t="n">
-        <v>2105.731061877833</v>
+        <v>1575.531304857213</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>49.04894055940719</v>
       </c>
       <c r="I30" t="n">
-        <v>49.04894055940719</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J30" t="n">
-        <v>97.54506861708839</v>
+        <v>357.0836481301427</v>
       </c>
       <c r="K30" t="n">
-        <v>212.0853798308893</v>
+        <v>516.9159491638776</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6741358562638</v>
+        <v>689.6901619110185</v>
       </c>
       <c r="M30" t="n">
-        <v>979.133024508802</v>
+        <v>899.1490505635568</v>
       </c>
       <c r="N30" t="n">
-        <v>1199.971167870475</v>
+        <v>1119.98719392523</v>
       </c>
       <c r="O30" t="n">
-        <v>1806.951807293139</v>
+        <v>1313.011933812384</v>
       </c>
       <c r="P30" t="n">
-        <v>1954.041286585722</v>
+        <v>1460.101413104967</v>
       </c>
       <c r="Q30" t="n">
-        <v>2032.149433631124</v>
+        <v>1944.179717154143</v>
       </c>
       <c r="R30" t="n">
         <v>2039.029719957319</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1102.434962850093</v>
+        <v>1013.139739306233</v>
       </c>
       <c r="C31" t="n">
-        <v>931.3415904118096</v>
+        <v>842.046366867949</v>
       </c>
       <c r="D31" t="n">
-        <v>771.8469457347196</v>
+        <v>682.551722190859</v>
       </c>
       <c r="E31" t="n">
-        <v>610.9361306030391</v>
+        <v>521.6409070591784</v>
       </c>
       <c r="F31" t="n">
-        <v>446.3050047136304</v>
+        <v>357.0097811697697</v>
       </c>
       <c r="G31" t="n">
-        <v>279.9541270789258</v>
+        <v>190.658903535065</v>
       </c>
       <c r="H31" t="n">
-        <v>138.344164103268</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="I31" t="n">
         <v>49.04894055940719</v>
@@ -6645,28 +6645,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R31" t="n">
-        <v>2407.61970485497</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="S31" t="n">
-        <v>2236.904002771284</v>
+        <v>2281.731325886675</v>
       </c>
       <c r="T31" t="n">
-        <v>2236.904002771284</v>
+        <v>2046.02596246959</v>
       </c>
       <c r="U31" t="n">
-        <v>2032.283894486815</v>
+        <v>2046.02596246959</v>
       </c>
       <c r="V31" t="n">
-        <v>2032.283894486815</v>
+        <v>1772.140217409112</v>
       </c>
       <c r="W31" t="n">
-        <v>1753.214229995689</v>
+        <v>1663.919006451829</v>
       </c>
       <c r="X31" t="n">
-        <v>1514.870367855373</v>
+        <v>1425.575144311512</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.134669244138</v>
+        <v>1200.839445700277</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2042.22584830587</v>
+        <v>1590.556162035409</v>
       </c>
       <c r="C32" t="n">
-        <v>1632.10125761914</v>
+        <v>1590.556162035409</v>
       </c>
       <c r="D32" t="n">
-        <v>1291.142541284164</v>
+        <v>1590.556162035409</v>
       </c>
       <c r="E32" t="n">
-        <v>876.8023258010603</v>
+        <v>1176.215946552306</v>
       </c>
       <c r="F32" t="n">
-        <v>455.7719137547479</v>
+        <v>755.1855345059937</v>
       </c>
       <c r="G32" t="n">
-        <v>49.04894055940719</v>
+        <v>348.462561310653</v>
       </c>
       <c r="H32" t="n">
-        <v>49.04894055940719</v>
+        <v>58.0909543141201</v>
       </c>
       <c r="I32" t="n">
         <v>49.04894055940719</v>
       </c>
       <c r="J32" t="n">
-        <v>470.0457237154926</v>
+        <v>143.2698968277634</v>
       </c>
       <c r="K32" t="n">
-        <v>631.8076127881163</v>
+        <v>305.0317859003873</v>
       </c>
       <c r="L32" t="n">
-        <v>847.4327536998624</v>
+        <v>912.0124253230513</v>
       </c>
       <c r="M32" t="n">
-        <v>1100.183391645783</v>
+        <v>1164.763063268972</v>
       </c>
       <c r="N32" t="n">
-        <v>1358.892391549753</v>
+        <v>1495.422978469981</v>
       </c>
       <c r="O32" t="n">
-        <v>1597.783183230322</v>
+        <v>2102.403617892645</v>
       </c>
       <c r="P32" t="n">
-        <v>1787.698041648011</v>
+        <v>2292.318476310334</v>
       </c>
       <c r="Q32" t="n">
-        <v>2288.430996335881</v>
+        <v>2415.426663412022</v>
       </c>
       <c r="R32" t="n">
         <v>2452.44702797036</v>
       </c>
       <c r="S32" t="n">
-        <v>2452.44702797036</v>
+        <v>2362.86197516772</v>
       </c>
       <c r="T32" t="n">
-        <v>2452.44702797036</v>
+        <v>2149.433739631102</v>
       </c>
       <c r="U32" t="n">
-        <v>2452.44702797036</v>
+        <v>2149.433739631102</v>
       </c>
       <c r="V32" t="n">
-        <v>2452.44702797036</v>
+        <v>2000.777341699899</v>
       </c>
       <c r="W32" t="n">
-        <v>2452.44702797036</v>
+        <v>2000.777341699899</v>
       </c>
       <c r="X32" t="n">
-        <v>2452.44702797036</v>
+        <v>2000.777341699899</v>
       </c>
       <c r="Y32" t="n">
-        <v>2452.44702797036</v>
+        <v>2000.777341699899</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>49.04894055940719</v>
       </c>
       <c r="I33" t="n">
-        <v>49.04894055940719</v>
+        <v>64.91911609782825</v>
       </c>
       <c r="J33" t="n">
-        <v>97.54506861708839</v>
+        <v>357.0836481301427</v>
       </c>
       <c r="K33" t="n">
-        <v>212.0853798308893</v>
+        <v>471.6239593439437</v>
       </c>
       <c r="L33" t="n">
-        <v>384.8595925780303</v>
+        <v>644.3981720910847</v>
       </c>
       <c r="M33" t="n">
-        <v>991.8402320006943</v>
+        <v>853.8570607436229</v>
       </c>
       <c r="N33" t="n">
-        <v>1212.678375362368</v>
+        <v>1074.695204105296</v>
       </c>
       <c r="O33" t="n">
-        <v>1405.703115249522</v>
+        <v>1267.71994399245</v>
       </c>
       <c r="P33" t="n">
-        <v>1954.041286585722</v>
+        <v>1460.101413104967</v>
       </c>
       <c r="Q33" t="n">
-        <v>2032.149433631124</v>
+        <v>1944.179717154143</v>
       </c>
       <c r="R33" t="n">
         <v>2039.029719957319</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>514.7148795725644</v>
+        <v>797.8860648282713</v>
       </c>
       <c r="C34" t="n">
-        <v>343.6215071342809</v>
+        <v>626.7926923899878</v>
       </c>
       <c r="D34" t="n">
-        <v>302.9752899926761</v>
+        <v>626.7926923899878</v>
       </c>
       <c r="E34" t="n">
-        <v>302.9752899926761</v>
+        <v>465.8818772583073</v>
       </c>
       <c r="F34" t="n">
-        <v>138.3441641032674</v>
+        <v>446.3050047136304</v>
       </c>
       <c r="G34" t="n">
-        <v>138.3441641032674</v>
+        <v>279.9541270789258</v>
       </c>
       <c r="H34" t="n">
-        <v>138.3441641032674</v>
+        <v>138.344164103268</v>
       </c>
       <c r="I34" t="n">
-        <v>49.04894055940662</v>
+        <v>49.04894055940719</v>
       </c>
       <c r="J34" t="n">
-        <v>125.4615377112896</v>
+        <v>125.46153771129</v>
       </c>
       <c r="K34" t="n">
-        <v>382.4412809153938</v>
+        <v>382.4412809153941</v>
       </c>
       <c r="L34" t="n">
-        <v>773.4102084873512</v>
+        <v>773.4102084873515</v>
       </c>
       <c r="M34" t="n">
         <v>1200.871129180882</v>
@@ -6882,28 +6882,28 @@
         <v>2452.44702797036</v>
       </c>
       <c r="R34" t="n">
-        <v>2407.619704854969</v>
+        <v>2452.44702797036</v>
       </c>
       <c r="S34" t="n">
-        <v>2236.904002771284</v>
+        <v>2281.731325886674</v>
       </c>
       <c r="T34" t="n">
-        <v>2001.198639354199</v>
+        <v>2046.025962469589</v>
       </c>
       <c r="U34" t="n">
-        <v>1718.449556269764</v>
+        <v>1763.276879385155</v>
       </c>
       <c r="V34" t="n">
-        <v>1444.563811209286</v>
+        <v>1489.391134324677</v>
       </c>
       <c r="W34" t="n">
-        <v>1165.494146718161</v>
+        <v>1210.321469833551</v>
       </c>
       <c r="X34" t="n">
-        <v>927.1502845778441</v>
+        <v>1210.321469833551</v>
       </c>
       <c r="Y34" t="n">
-        <v>702.4145859666088</v>
+        <v>985.5857712223157</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1629.655958986776</v>
+        <v>348.4630790870771</v>
       </c>
       <c r="C35" t="n">
-        <v>1219.531368300046</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="D35" t="n">
-        <v>815.0674383931064</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="E35" t="n">
-        <v>461.6422646870861</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="F35" t="n">
         <v>40.61185264077371</v>
@@ -6937,52 +6937,52 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J35" t="n">
-        <v>134.83280890913</v>
+        <v>461.6086357968591</v>
       </c>
       <c r="K35" t="n">
-        <v>296.5946979817538</v>
+        <v>623.3705248694829</v>
       </c>
       <c r="L35" t="n">
-        <v>512.2198388934999</v>
+        <v>838.9956657812288</v>
       </c>
       <c r="M35" t="n">
-        <v>764.9704768394209</v>
+        <v>1091.74630372715</v>
       </c>
       <c r="N35" t="n">
-        <v>1062.194940952516</v>
+        <v>1350.45530363112</v>
       </c>
       <c r="O35" t="n">
-        <v>1301.085732633085</v>
+        <v>1589.346095311688</v>
       </c>
       <c r="P35" t="n">
-        <v>1491.000591050773</v>
+        <v>1779.260953729377</v>
       </c>
       <c r="Q35" t="n">
         <v>1993.572267480348</v>
       </c>
       <c r="R35" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S35" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="T35" t="n">
-        <v>2030.592632038685</v>
+        <v>1817.164396502068</v>
       </c>
       <c r="U35" t="n">
-        <v>2030.592632038685</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="V35" t="n">
-        <v>2030.592632038685</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="W35" t="n">
-        <v>2030.592632038685</v>
+        <v>1560.264329634524</v>
       </c>
       <c r="X35" t="n">
-        <v>2030.592632038685</v>
+        <v>1159.620931803476</v>
       </c>
       <c r="Y35" t="n">
-        <v>1629.655958986776</v>
+        <v>758.6842587515665</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>687.258864967923</v>
+        <v>687.2588649679232</v>
       </c>
       <c r="C36" t="n">
-        <v>553.2637937168687</v>
+        <v>553.2637937168689</v>
       </c>
       <c r="D36" t="n">
-        <v>436.3666359362611</v>
+        <v>436.3666359362612</v>
       </c>
       <c r="E36" t="n">
-        <v>315.8738199285891</v>
+        <v>315.8738199285892</v>
       </c>
       <c r="F36" t="n">
-        <v>206.9139401110937</v>
+        <v>206.9139401110938</v>
       </c>
       <c r="G36" t="n">
         <v>100.9967633533972</v>
@@ -7013,25 +7013,25 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I36" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J36" t="n">
-        <v>89.10798069845492</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K36" t="n">
-        <v>203.6482919122559</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L36" t="n">
-        <v>681.253073992385</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M36" t="n">
-        <v>890.7119626449232</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N36" t="n">
-        <v>1111.550106006596</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O36" t="n">
-        <v>1304.574845893751</v>
+        <v>1259.282856073817</v>
       </c>
       <c r="P36" t="n">
         <v>1451.664325186334</v>
@@ -7040,7 +7040,7 @@
         <v>1935.742629235509</v>
       </c>
       <c r="R36" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S36" t="n">
         <v>1942.531936429008</v>
@@ -7058,10 +7058,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X36" t="n">
-        <v>986.9638572396797</v>
+        <v>986.9638572396798</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.5618976035097</v>
+        <v>827.5618976035098</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.1998697561472</v>
+        <v>280.5601900349348</v>
       </c>
       <c r="C37" t="n">
-        <v>200.1064973178637</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="D37" t="n">
-        <v>40.61185264077371</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="E37" t="n">
-        <v>40.61185264077371</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="F37" t="n">
-        <v>40.61185264077371</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="G37" t="n">
         <v>40.61185264077371</v>
@@ -7095,52 +7095,52 @@
         <v>40.61185264077371</v>
       </c>
       <c r="J37" t="n">
-        <v>117.0244497926567</v>
+        <v>52.02308616132028</v>
       </c>
       <c r="K37" t="n">
-        <v>374.0041929967609</v>
+        <v>102.7226357797103</v>
       </c>
       <c r="L37" t="n">
-        <v>450.9940093336952</v>
+        <v>493.6915633516677</v>
       </c>
       <c r="M37" t="n">
-        <v>878.4549300272261</v>
+        <v>921.1524840451984</v>
       </c>
       <c r="N37" t="n">
-        <v>1294.204564127756</v>
+        <v>1336.902118145729</v>
       </c>
       <c r="O37" t="n">
-        <v>1678.377181959086</v>
+        <v>1721.074735977058</v>
       </c>
       <c r="P37" t="n">
-        <v>1891.241525240598</v>
+        <v>2017.515485446435</v>
       </c>
       <c r="Q37" t="n">
-        <v>2030.592632038685</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="R37" t="n">
-        <v>2030.592632038685</v>
+        <v>1985.765308923296</v>
       </c>
       <c r="S37" t="n">
-        <v>2030.592632038685</v>
+        <v>1815.04960683961</v>
       </c>
       <c r="T37" t="n">
-        <v>1857.683629537782</v>
+        <v>1579.344243422525</v>
       </c>
       <c r="U37" t="n">
-        <v>1574.934546453347</v>
+        <v>1296.59516033809</v>
       </c>
       <c r="V37" t="n">
-        <v>1301.048801392869</v>
+        <v>1022.709415277612</v>
       </c>
       <c r="W37" t="n">
-        <v>1021.979136901743</v>
+        <v>743.6397507864867</v>
       </c>
       <c r="X37" t="n">
-        <v>783.6352747614269</v>
+        <v>505.2958886461701</v>
       </c>
       <c r="Y37" t="n">
-        <v>558.8995761501916</v>
+        <v>280.5601900349348</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>865.0766588106069</v>
+        <v>639.1580365908814</v>
       </c>
       <c r="C38" t="n">
-        <v>454.952068123877</v>
+        <v>639.1580365908814</v>
       </c>
       <c r="D38" t="n">
-        <v>454.952068123877</v>
+        <v>639.1580365908814</v>
       </c>
       <c r="E38" t="n">
-        <v>40.61185264077371</v>
+        <v>639.1580365908814</v>
       </c>
       <c r="F38" t="n">
-        <v>40.61185264077371</v>
+        <v>218.1276245445689</v>
       </c>
       <c r="G38" t="n">
-        <v>40.61185264077371</v>
+        <v>218.1276245445689</v>
       </c>
       <c r="H38" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I38" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J38" t="n">
-        <v>134.83280890913</v>
+        <v>425.8160953700002</v>
       </c>
       <c r="K38" t="n">
-        <v>296.5946979817538</v>
+        <v>587.577984442624</v>
       </c>
       <c r="L38" t="n">
-        <v>512.2198388934999</v>
+        <v>803.2031253543699</v>
       </c>
       <c r="M38" t="n">
-        <v>764.9704768394209</v>
+        <v>1055.953763300291</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.679476743391</v>
+        <v>1314.662763204261</v>
       </c>
       <c r="O38" t="n">
-        <v>1262.57026842396</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P38" t="n">
-        <v>1452.485126841648</v>
+        <v>1743.468413302518</v>
       </c>
       <c r="Q38" t="n">
         <v>1866.576600404207</v>
@@ -7207,19 +7207,19 @@
         <v>2030.592632038686</v>
       </c>
       <c r="U38" t="n">
-        <v>2030.592632038686</v>
+        <v>1773.692565171142</v>
       </c>
       <c r="V38" t="n">
-        <v>2030.592632038686</v>
+        <v>1423.855010507623</v>
       </c>
       <c r="W38" t="n">
-        <v>2030.592632038686</v>
+        <v>1040.094709642791</v>
       </c>
       <c r="X38" t="n">
-        <v>1629.949234207638</v>
+        <v>1040.094709642791</v>
       </c>
       <c r="Y38" t="n">
-        <v>1229.012561155728</v>
+        <v>639.1580365908814</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I39" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J39" t="n">
-        <v>332.7763846730882</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K39" t="n">
-        <v>447.3166958868891</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0909086340301</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M39" t="n">
-        <v>829.5497972865683</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N39" t="n">
-        <v>1050.387940648242</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O39" t="n">
-        <v>1243.412680535396</v>
+        <v>1259.282856073817</v>
       </c>
       <c r="P39" t="n">
-        <v>1539.634041663315</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q39" t="n">
-        <v>2023.712345712491</v>
+        <v>1935.742629235509</v>
       </c>
       <c r="R39" t="n">
         <v>2030.592632038685</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.86048364089041</v>
+        <v>533.1392074512014</v>
       </c>
       <c r="C40" t="n">
-        <v>40.61185264077371</v>
+        <v>362.0458350129179</v>
       </c>
       <c r="D40" t="n">
-        <v>40.61185264077371</v>
+        <v>362.0458350129179</v>
       </c>
       <c r="E40" t="n">
-        <v>40.61185264077371</v>
+        <v>201.1350198812374</v>
       </c>
       <c r="F40" t="n">
         <v>40.61185264077371</v>
@@ -7335,16 +7335,16 @@
         <v>117.0244497926567</v>
       </c>
       <c r="K40" t="n">
-        <v>374.0041929967609</v>
+        <v>167.7239994110467</v>
       </c>
       <c r="L40" t="n">
-        <v>764.9731205687183</v>
+        <v>558.6929269830041</v>
       </c>
       <c r="M40" t="n">
-        <v>847.4676917479635</v>
+        <v>779.0167332492081</v>
       </c>
       <c r="N40" t="n">
-        <v>1263.217325848494</v>
+        <v>1194.766367349738</v>
       </c>
       <c r="O40" t="n">
         <v>1578.938985181068</v>
@@ -7356,28 +7356,28 @@
         <v>2030.592632038686</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S40" t="n">
-        <v>1815.04960683961</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="T40" t="n">
-        <v>1579.344243422525</v>
+        <v>1794.887268621601</v>
       </c>
       <c r="U40" t="n">
-        <v>1296.59516033809</v>
+        <v>1512.138185537166</v>
       </c>
       <c r="V40" t="n">
-        <v>1022.709415277612</v>
+        <v>1238.252440476688</v>
       </c>
       <c r="W40" t="n">
-        <v>743.6397507864867</v>
+        <v>959.1827759855623</v>
       </c>
       <c r="X40" t="n">
-        <v>505.2958886461701</v>
+        <v>720.8389138452458</v>
       </c>
       <c r="Y40" t="n">
-        <v>280.5601900349348</v>
+        <v>720.8389138452458</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>450.7364433275036</v>
+        <v>665.7467709555909</v>
       </c>
       <c r="C41" t="n">
-        <v>40.61185264077371</v>
+        <v>665.7467709555909</v>
       </c>
       <c r="D41" t="n">
-        <v>40.61185264077371</v>
+        <v>261.2828410486514</v>
       </c>
       <c r="E41" t="n">
-        <v>40.61185264077371</v>
+        <v>261.2828410486514</v>
       </c>
       <c r="F41" t="n">
-        <v>40.61185264077371</v>
+        <v>261.2828410486514</v>
       </c>
       <c r="G41" t="n">
-        <v>40.61185264077371</v>
+        <v>261.2828410486514</v>
       </c>
       <c r="H41" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I41" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J41" t="n">
-        <v>173.3482731182553</v>
+        <v>425.8160953700002</v>
       </c>
       <c r="K41" t="n">
-        <v>335.1101621908792</v>
+        <v>587.577984442624</v>
       </c>
       <c r="L41" t="n">
-        <v>550.7353031026252</v>
+        <v>803.2031253543699</v>
       </c>
       <c r="M41" t="n">
-        <v>803.4859410485462</v>
+        <v>1055.953763300291</v>
       </c>
       <c r="N41" t="n">
-        <v>1062.194940952516</v>
+        <v>1314.662763204261</v>
       </c>
       <c r="O41" t="n">
-        <v>1301.085732633085</v>
+        <v>1553.55355488483</v>
       </c>
       <c r="P41" t="n">
-        <v>1491.000591050773</v>
+        <v>1743.468413302518</v>
       </c>
       <c r="Q41" t="n">
-        <v>1993.572267480348</v>
+        <v>1866.576600404207</v>
       </c>
       <c r="R41" t="n">
         <v>2030.592632038686</v>
@@ -7441,22 +7441,22 @@
         <v>2030.592632038686</v>
       </c>
       <c r="T41" t="n">
-        <v>2030.592632038686</v>
+        <v>1817.164396502068</v>
       </c>
       <c r="U41" t="n">
-        <v>2012.37524853847</v>
+        <v>1817.164396502068</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.53769387495</v>
+        <v>1467.326841838548</v>
       </c>
       <c r="W41" t="n">
-        <v>1662.53769387495</v>
+        <v>1467.326841838548</v>
       </c>
       <c r="X41" t="n">
-        <v>1261.894296043903</v>
+        <v>1066.683444007501</v>
       </c>
       <c r="Y41" t="n">
-        <v>860.957622991993</v>
+        <v>665.7467709555909</v>
       </c>
     </row>
     <row r="42">
@@ -7499,22 +7499,22 @@
         <v>635.9610841724513</v>
       </c>
       <c r="M42" t="n">
-        <v>1138.532760602026</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N42" t="n">
-        <v>1359.370903963699</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O42" t="n">
-        <v>1552.395643850853</v>
+        <v>1259.282856073817</v>
       </c>
       <c r="P42" t="n">
-        <v>1699.485123143437</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q42" t="n">
-        <v>2023.712345712491</v>
+        <v>1935.742629235509</v>
       </c>
       <c r="R42" t="n">
-        <v>2030.592632038686</v>
+        <v>2030.592632038685</v>
       </c>
       <c r="S42" t="n">
         <v>1942.531936429008</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1093.99787493146</v>
+        <v>378.0561027137618</v>
       </c>
       <c r="C43" t="n">
-        <v>922.9045024931763</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="D43" t="n">
-        <v>763.4098578160863</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="E43" t="n">
-        <v>602.4990426844057</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="F43" t="n">
-        <v>437.867916794997</v>
+        <v>206.9627302754783</v>
       </c>
       <c r="G43" t="n">
-        <v>271.5170391602923</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="H43" t="n">
-        <v>129.9070761846345</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I43" t="n">
         <v>40.61185264077371</v>
       </c>
       <c r="J43" t="n">
-        <v>52.02308616132028</v>
+        <v>117.0244497926567</v>
       </c>
       <c r="K43" t="n">
-        <v>102.7226357797103</v>
+        <v>374.0041929967609</v>
       </c>
       <c r="L43" t="n">
-        <v>493.6915633516677</v>
+        <v>666.6305719744178</v>
       </c>
       <c r="M43" t="n">
-        <v>921.1524840451984</v>
+        <v>1094.091492667949</v>
       </c>
       <c r="N43" t="n">
-        <v>1336.902118145729</v>
+        <v>1509.841126768479</v>
       </c>
       <c r="O43" t="n">
-        <v>1721.074735977058</v>
+        <v>1578.938985181068</v>
       </c>
       <c r="P43" t="n">
-        <v>2017.515485446435</v>
+        <v>1891.241525240598</v>
       </c>
       <c r="Q43" t="n">
         <v>2030.592632038686</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S43" t="n">
-        <v>1815.04960683961</v>
+        <v>1859.876929955</v>
       </c>
       <c r="T43" t="n">
-        <v>1579.344243422525</v>
+        <v>1624.171566537915</v>
       </c>
       <c r="U43" t="n">
-        <v>1296.59516033809</v>
+        <v>1581.790779410962</v>
       </c>
       <c r="V43" t="n">
-        <v>1296.59516033809</v>
+        <v>1307.905034350484</v>
       </c>
       <c r="W43" t="n">
-        <v>1296.59516033809</v>
+        <v>1028.835369859358</v>
       </c>
       <c r="X43" t="n">
-        <v>1296.59516033809</v>
+        <v>790.4915077190416</v>
       </c>
       <c r="Y43" t="n">
-        <v>1281.697581325504</v>
+        <v>565.7558091078063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>461.6422646870861</v>
+        <v>989.2888664752631</v>
       </c>
       <c r="C44" t="n">
-        <v>461.6422646870861</v>
+        <v>989.2888664752631</v>
       </c>
       <c r="D44" t="n">
-        <v>461.6422646870861</v>
+        <v>989.2888664752631</v>
       </c>
       <c r="E44" t="n">
-        <v>461.6422646870861</v>
+        <v>989.2888664752631</v>
       </c>
       <c r="F44" t="n">
-        <v>40.61185264077371</v>
+        <v>746.7484465873601</v>
       </c>
       <c r="G44" t="n">
-        <v>40.61185264077371</v>
+        <v>340.0254733920195</v>
       </c>
       <c r="H44" t="n">
-        <v>40.61185264077371</v>
+        <v>49.65386639548662</v>
       </c>
       <c r="I44" t="n">
         <v>40.61185264077371</v>
@@ -7651,22 +7651,22 @@
         <v>461.6086357968591</v>
       </c>
       <c r="K44" t="n">
-        <v>623.3705248694829</v>
+        <v>714.573651518765</v>
       </c>
       <c r="L44" t="n">
-        <v>838.9956657812288</v>
+        <v>930.1987924305109</v>
       </c>
       <c r="M44" t="n">
-        <v>1091.74630372715</v>
+        <v>1182.949430376432</v>
       </c>
       <c r="N44" t="n">
-        <v>1350.45530363112</v>
+        <v>1441.658430280402</v>
       </c>
       <c r="O44" t="n">
-        <v>1589.346095311688</v>
+        <v>1680.549221960971</v>
       </c>
       <c r="P44" t="n">
-        <v>1779.260953729377</v>
+        <v>1870.464080378659</v>
       </c>
       <c r="Q44" t="n">
         <v>1993.572267480348</v>
@@ -7675,25 +7675,25 @@
         <v>2030.592632038686</v>
       </c>
       <c r="S44" t="n">
-        <v>1941.007579236046</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="T44" t="n">
-        <v>1941.007579236046</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="U44" t="n">
-        <v>1941.007579236046</v>
+        <v>1773.692565171142</v>
       </c>
       <c r="V44" t="n">
-        <v>1591.170024572527</v>
+        <v>1773.692565171142</v>
       </c>
       <c r="W44" t="n">
-        <v>1207.409723707696</v>
+        <v>1389.932264306311</v>
       </c>
       <c r="X44" t="n">
-        <v>862.578937738996</v>
+        <v>989.2888664752631</v>
       </c>
       <c r="Y44" t="n">
-        <v>461.6422646870861</v>
+        <v>989.2888664752631</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>687.2588649679232</v>
+        <v>687.258864967923</v>
       </c>
       <c r="C45" t="n">
-        <v>553.2637937168689</v>
+        <v>553.2637937168687</v>
       </c>
       <c r="D45" t="n">
-        <v>436.3666359362612</v>
+        <v>436.3666359362611</v>
       </c>
       <c r="E45" t="n">
-        <v>315.8738199285892</v>
+        <v>315.8738199285891</v>
       </c>
       <c r="F45" t="n">
-        <v>206.9139401110938</v>
+        <v>206.9139401110937</v>
       </c>
       <c r="G45" t="n">
         <v>100.9967633533972</v>
@@ -7724,34 +7724,34 @@
         <v>40.61185264077371</v>
       </c>
       <c r="I45" t="n">
-        <v>40.61185264077371</v>
+        <v>56.48202817919477</v>
       </c>
       <c r="J45" t="n">
-        <v>89.10798069845492</v>
+        <v>348.6465602115093</v>
       </c>
       <c r="K45" t="n">
-        <v>203.6482919122559</v>
+        <v>463.1868714253102</v>
       </c>
       <c r="L45" t="n">
-        <v>512.3769101512207</v>
+        <v>635.9610841724513</v>
       </c>
       <c r="M45" t="n">
-        <v>1014.948586580795</v>
+        <v>845.4199728249894</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.52026301037</v>
+        <v>1066.258116186663</v>
       </c>
       <c r="O45" t="n">
-        <v>1710.545002897524</v>
+        <v>1259.282856073817</v>
       </c>
       <c r="P45" t="n">
-        <v>1857.634482190108</v>
+        <v>1451.664325186334</v>
       </c>
       <c r="Q45" t="n">
         <v>1935.742629235509</v>
       </c>
       <c r="R45" t="n">
-        <v>2030.592632038686</v>
+        <v>2030.592632038685</v>
       </c>
       <c r="S45" t="n">
         <v>1942.531936429008</v>
@@ -7769,10 +7769,10 @@
         <v>1163.289839100787</v>
       </c>
       <c r="X45" t="n">
-        <v>986.9638572396798</v>
+        <v>986.9638572396797</v>
       </c>
       <c r="Y45" t="n">
-        <v>827.5618976035098</v>
+        <v>827.5618976035097</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.9045024931763</v>
+        <v>546.7473709802827</v>
       </c>
       <c r="C46" t="n">
-        <v>922.9045024931763</v>
+        <v>546.7473709802827</v>
       </c>
       <c r="D46" t="n">
-        <v>763.4098578160863</v>
+        <v>387.2527263031927</v>
       </c>
       <c r="E46" t="n">
-        <v>602.4990426844057</v>
+        <v>226.3419111715122</v>
       </c>
       <c r="F46" t="n">
-        <v>437.867916794997</v>
+        <v>61.71078528210342</v>
       </c>
       <c r="G46" t="n">
-        <v>271.5170391602923</v>
+        <v>61.71078528210342</v>
       </c>
       <c r="H46" t="n">
-        <v>129.9070761846345</v>
+        <v>40.61185264077371</v>
       </c>
       <c r="I46" t="n">
         <v>40.61185264077371</v>
@@ -7809,10 +7809,10 @@
         <v>117.0244497926567</v>
       </c>
       <c r="K46" t="n">
-        <v>374.0041929967609</v>
+        <v>221.4843684568378</v>
       </c>
       <c r="L46" t="n">
-        <v>764.9731205687183</v>
+        <v>612.4532960287952</v>
       </c>
       <c r="M46" t="n">
         <v>1039.914216722326</v>
@@ -7830,28 +7830,28 @@
         <v>2030.592632038686</v>
       </c>
       <c r="R46" t="n">
-        <v>1985.765308923296</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="S46" t="n">
-        <v>1815.04960683961</v>
+        <v>2030.592632038686</v>
       </c>
       <c r="T46" t="n">
-        <v>1815.04960683961</v>
+        <v>1794.887268621601</v>
       </c>
       <c r="U46" t="n">
-        <v>1659.869808305206</v>
+        <v>1512.138185537166</v>
       </c>
       <c r="V46" t="n">
-        <v>1385.984063244728</v>
+        <v>1238.252440476688</v>
       </c>
       <c r="W46" t="n">
-        <v>1385.984063244728</v>
+        <v>959.1827759855623</v>
       </c>
       <c r="X46" t="n">
-        <v>1147.640201104412</v>
+        <v>959.1827759855623</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.9045024931763</v>
+        <v>734.447077374327</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.47002078974843</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>97.91326642434689</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>104.6318275192853</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>102.4366539134859</v>
       </c>
       <c r="N2" t="n">
-        <v>102.0587202130598</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>102.7957927373246</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>96.458572271164</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>60.14611555112977</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>65.26095326728954</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8072,16 +8072,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>66.89790845644049</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>63.40606445924423</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.46949525596848</v>
+        <v>65.83904796127921</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>68.1466285618459</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8148,16 +8148,16 @@
         <v>56.26494249878004</v>
       </c>
       <c r="N4" t="n">
-        <v>60.4895222595492</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O4" t="n">
-        <v>65.22132752943682</v>
+        <v>64.8517748241261</v>
       </c>
       <c r="P4" t="n">
         <v>64.92627109634527</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>70.50595511636605</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>82.47002078974843</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>97.91326642434689</v>
       </c>
       <c r="L5" t="n">
-        <v>104.2622748139746</v>
+        <v>104.6318275192853</v>
       </c>
       <c r="M5" t="n">
         <v>102.4366539134859</v>
@@ -8300,19 +8300,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>65.26095326728954</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>66.34116048954718</v>
       </c>
       <c r="N6" t="n">
-        <v>62.33982285019048</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>66.52835575112975</v>
+        <v>66.89790845644049</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>63.40606445924423</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8376,25 +8376,25 @@
         <v>51.43314568295542</v>
       </c>
       <c r="K7" t="n">
-        <v>61.39679901550731</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L7" t="n">
         <v>54.62829389390151</v>
       </c>
       <c r="M7" t="n">
-        <v>65.04181924990981</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
-        <v>60.85907496485993</v>
+        <v>60.4895222595492</v>
       </c>
       <c r="O7" t="n">
-        <v>56.07489807299633</v>
+        <v>65.22132752943682</v>
       </c>
       <c r="P7" t="n">
         <v>64.92627109634527</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35952565992557</v>
+        <v>70.50595511636605</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8461,22 +8461,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>102.4366539134859</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>102.0587202130598</v>
       </c>
       <c r="O8" t="n">
-        <v>101.9666523769129</v>
+        <v>102.3362050822236</v>
       </c>
       <c r="P8" t="n">
-        <v>102.7957927373246</v>
+        <v>102.4262400320139</v>
       </c>
       <c r="Q8" t="n">
-        <v>99.18023385559253</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>96.458572271164</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>60.5156682564405</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>65.26095326728954</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>61.97027014487976</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>66.89790845644049</v>
       </c>
       <c r="P9" t="n">
-        <v>63.03651175393351</v>
+        <v>63.40606445924423</v>
       </c>
       <c r="Q9" t="n">
         <v>65.83904796127921</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60.57957513939591</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K10" t="n">
-        <v>52.25036955906683</v>
+        <v>61.39679901550731</v>
       </c>
       <c r="L10" t="n">
         <v>54.62829389390151</v>
       </c>
       <c r="M10" t="n">
-        <v>65.41137195522053</v>
+        <v>65.04181924990981</v>
       </c>
       <c r="N10" t="n">
-        <v>60.4895222595492</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O10" t="n">
-        <v>65.22132752943682</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P10" t="n">
-        <v>55.77984163990478</v>
+        <v>64.92627109634527</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.35952565992557</v>
+        <v>70.50595511636605</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>27.5781835473374</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>266.3443280292989</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>293.9225115766367</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.734978092198311</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>45.74948466659981</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>296.0735230071076</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>284.5793263312135</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>137.3276823149737</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8856,7 +8856,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>332.4288473981135</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
         <v>335.3881832803894</v>
@@ -8865,7 +8865,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>247.5108008918838</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>175.8750272842488</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>246.3259358844493</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>92.12437035281039</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>3.734978092198318</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>61.77996500843932</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>296.0735230071076</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>109.2333353710147</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>312.6736732751724</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9087,7 +9087,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
@@ -9096,16 +9096,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>253.7082295213091</v>
+        <v>236.0522756093788</v>
       </c>
       <c r="O16" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>246.3259358844493</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>175.8750272842488</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>293.9225115766369</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>119.0617511069798</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>312.6736732751724</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>359.0729264010013</v>
+        <v>45.74948466660021</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>317.1506174091142</v>
+        <v>290.6396433342803</v>
       </c>
       <c r="M19" t="n">
-        <v>332.4288473981135</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
         <v>335.3881832803894</v>
@@ -9339,7 +9339,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>96.74742392597571</v>
+        <v>96.74742392597619</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>266.2458009584143</v>
       </c>
       <c r="O22" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>163.0901885809091</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>357.8080822997404</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>381.4391591779618</v>
       </c>
       <c r="R23" t="n">
-        <v>67.54725951803648</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>3.734978092198318</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>61.77996500843938</v>
       </c>
       <c r="L24" t="n">
-        <v>416.7959058108613</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>390.042925314132</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>351.7895348673678</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>381.4391591779613</v>
+        <v>157.9280759026555</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>388.7015588669026</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>418.1372722580909</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>45.74948466659976</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>381.4391591779614</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>95.27874900188921</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.74948466659993</v>
       </c>
       <c r="L30" t="n">
-        <v>388.7015588669025</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>418.1372722580909</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>395.3085843544627</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>72.67769221923157</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>371.8079270122174</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>381.4391591779613</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>401.5371219900261</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>405.301709134967</v>
+        <v>45.74948466659976</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>38.90450930214655</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>383.2964538665514</v>
+        <v>92.12437035281039</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>307.9096659929173</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>45.74948466659998</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
@@ -10761,10 +10761,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>163.0901885809089</v>
+        <v>247.5108008918838</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>293.9225115766366</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>293.9225115766367</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>150.6382644801376</v>
+        <v>45.74948466659976</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,19 +10983,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>139.2214495827866</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>249.1149504242274</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
         <v>263.5328115890082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.90450930214686</v>
+        <v>293.9225115766366</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>383.2964538665514</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>296.0735230071076</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>45.74948466659976</v>
       </c>
       <c r="Q42" t="n">
-        <v>248.605126791568</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>217.8147097381036</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11232,13 +11232,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>247.5108008918838</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>92.12437035281022</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.12437035281039</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.734978092198318</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>137.3276823149736</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>296.0735230071076</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>284.5793263312135</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>45.74948466659976</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11457,13 +11457,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>54.30340307655669</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>194.3904292670328</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
@@ -22558,7 +22558,7 @@
         <v>1.050383871831754</v>
       </c>
       <c r="F2" t="n">
-        <v>7.673678469408804</v>
+        <v>7.673678469408811</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>402.6557434633873</v>
       </c>
       <c r="H11" t="n">
-        <v>39.39123339779567</v>
+        <v>287.4678909265675</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>176.8686250265491</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>68.70819164728722</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6761266183066</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23506,16 +23506,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H14" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.6247868099763</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>80.33597263650574</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>117.6562940237851</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23664,7 +23664,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.6873688583576</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>66.87962005616301</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.2834340189767</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>287.4678909265675</v>
       </c>
       <c r="I17" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3310661988683</v>
+        <v>165.023218953949</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>68.58217428400562</v>
       </c>
       <c r="H19" t="n">
         <v>140.1938633459013</v>
@@ -23940,16 +23940,16 @@
         <v>44.3790498842362</v>
       </c>
       <c r="S19" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9215922535905</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>35.87238573975063</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>66.03432850130861</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H20" t="n">
-        <v>287.4678909265675</v>
+        <v>48.50701965108155</v>
       </c>
       <c r="I20" t="n">
         <v>8.951593617165784</v>
@@ -24022,22 +24022,22 @@
         <v>88.68920227461291</v>
       </c>
       <c r="T20" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.3310661988683</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.716432320167769</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>169.0085450628485</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3483097829142</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>146.4115392794406</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>123.9913764244411</v>
       </c>
       <c r="D23" t="n">
-        <v>332.5437732143728</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -24220,7 +24220,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T23" t="n">
         <v>211.2939531812519</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>86.37935628107024</v>
       </c>
       <c r="H25" t="n">
         <v>140.1938633459013</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S25" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>39.29216425308996</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>292.2570204150655</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24457,13 +24457,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.6557434633873</v>
       </c>
       <c r="H26" t="n">
-        <v>287.4678909265675</v>
+        <v>151.3160476238024</v>
       </c>
       <c r="I26" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T26" t="n">
         <v>211.2939531812519</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>119.3624974879738</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>90.54781577102696</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>66.09035362890143</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.67849988978935</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>77.34768505196584</v>
+        <v>279.9215922535905</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>169.1399689985043</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>62.87016143624328</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>88.68920227461291</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.3310661988683</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>199.169345164993</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>117.6599432601303</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.6037108112845</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.1938633459013</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>101.2506305980222</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>60.30589135931223</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>402.6557434633873</v>
@@ -25207,10 +25207,10 @@
         <v>88.68920227461291</v>
       </c>
       <c r="T35" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>96.52095355203876</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6873688583576</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.1938633459013</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.3790498842362</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>169.0085450628485</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>62.16839730701983</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>45.82242454617443</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.6557434633873</v>
       </c>
       <c r="H38" t="n">
-        <v>287.4678909265675</v>
+        <v>120.6788703589761</v>
       </c>
       <c r="I38" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>211.2939531812519</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>117.6562940237851</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>4.066879062455627</v>
       </c>
       <c r="G40" t="n">
         <v>164.6873688583576</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25645,10 +25645,10 @@
         <v>402.6557434633873</v>
       </c>
       <c r="H41" t="n">
-        <v>287.4678909265675</v>
+        <v>77.95520601993437</v>
       </c>
       <c r="I41" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>88.68920227461291</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2939531812519</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2958565336546</v>
+        <v>254.3310661988683</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.1938633459013</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>237.9646129979065</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>207.7397384026626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>176.7050922368254</v>
       </c>
       <c r="G44" t="n">
-        <v>402.6557434633873</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>287.4678909265675</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.951593617165784</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.68920227461291</v>
       </c>
       <c r="T44" t="n">
         <v>211.2939531812519</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3310661988683</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>55.25448574372427</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6873688583576</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>119.3059200309849</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.40227130842214</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>44.3790498842362</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>169.0085450628485</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3483097829142</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>126.2935917045303</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>445811.9023094361</v>
+        <v>445811.9023094362</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>445811.9023094361</v>
+        <v>445811.9023094362</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>445811.9023094363</v>
+        <v>445811.9023094362</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>503334.0428128093</v>
+        <v>503334.0428128095</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>503334.0428128096</v>
+        <v>503334.0428128093</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>503334.0428128096</v>
+        <v>503334.0428128095</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>445811.9023094361</v>
+        <v>445811.9023094362</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>445811.9023094361</v>
+        <v>445811.9023094362</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>445811.9023094361</v>
+        <v>445811.9023094362</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>445811.9023094362</v>
+        <v>445811.9023094361</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>471855.474156412</v>
+      </c>
+      <c r="C2" t="n">
         <v>471855.4741564119</v>
-      </c>
-      <c r="C2" t="n">
-        <v>471855.4741564121</v>
       </c>
       <c r="D2" t="n">
         <v>471855.4741564119</v>
       </c>
       <c r="E2" t="n">
-        <v>291060.3712217119</v>
+        <v>291060.3712217118</v>
       </c>
       <c r="F2" t="n">
         <v>291060.3712217119</v>
       </c>
       <c r="G2" t="n">
-        <v>291060.371221712</v>
+        <v>291060.3712217118</v>
       </c>
       <c r="H2" t="n">
         <v>291060.3712217119</v>
       </c>
       <c r="I2" t="n">
-        <v>321801.6274865228</v>
+        <v>321801.6274865227</v>
       </c>
       <c r="J2" t="n">
         <v>321801.6274865227</v>
       </c>
       <c r="K2" t="n">
-        <v>321801.6274865228</v>
+        <v>321801.627486523</v>
       </c>
       <c r="L2" t="n">
-        <v>321801.6274865228</v>
+        <v>321801.6274865227</v>
       </c>
       <c r="M2" t="n">
+        <v>291060.3712217117</v>
+      </c>
+      <c r="N2" t="n">
         <v>291060.371221712</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>291060.371221712</v>
+      </c>
+      <c r="P2" t="n">
         <v>291060.3712217118</v>
-      </c>
-      <c r="O2" t="n">
-        <v>291060.3712217118</v>
-      </c>
-      <c r="P2" t="n">
-        <v>291060.3712217119</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3065.178878730687</v>
+        <v>3065.178878730705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28044.98570513667</v>
+        <v>28044.9857051367</v>
       </c>
       <c r="J3" t="n">
-        <v>2393.108388700919</v>
+        <v>2393.108388700904</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>97946.67404143997</v>
+        <v>97946.67404144016</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,25 +26432,25 @@
         <v>34752.96465846714</v>
       </c>
       <c r="G4" t="n">
-        <v>34752.96465846714</v>
+        <v>34752.96465846716</v>
       </c>
       <c r="H4" t="n">
-        <v>34752.96465846714</v>
+        <v>34752.96465846715</v>
       </c>
       <c r="I4" t="n">
-        <v>48878.22305287554</v>
+        <v>48878.22305287555</v>
       </c>
       <c r="J4" t="n">
         <v>48878.22305287553</v>
       </c>
       <c r="K4" t="n">
+        <v>48878.22305287553</v>
+      </c>
+      <c r="L4" t="n">
         <v>48878.22305287555</v>
       </c>
-      <c r="L4" t="n">
-        <v>48878.22305287554</v>
-      </c>
       <c r="M4" t="n">
-        <v>34752.96465846713</v>
+        <v>34752.96465846715</v>
       </c>
       <c r="N4" t="n">
         <v>34752.96465846714</v>
@@ -26490,7 +26490,7 @@
         <v>41630.56475662727</v>
       </c>
       <c r="I5" t="n">
-        <v>48042.75157478871</v>
+        <v>48042.75157478872</v>
       </c>
       <c r="J5" t="n">
         <v>48042.75157478871</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88203.36748116557</v>
+        <v>88201.63139275978</v>
       </c>
       <c r="C6" t="n">
-        <v>91268.54635989643</v>
+        <v>91266.81027149029</v>
       </c>
       <c r="D6" t="n">
-        <v>91268.54635989625</v>
+        <v>91266.81027149035</v>
       </c>
       <c r="E6" t="n">
-        <v>-330911.6233256804</v>
+        <v>-331536.7908035165</v>
       </c>
       <c r="F6" t="n">
-        <v>214676.8418066176</v>
+        <v>214051.6743287815</v>
       </c>
       <c r="G6" t="n">
-        <v>214676.8418066176</v>
+        <v>214051.6743287815</v>
       </c>
       <c r="H6" t="n">
-        <v>214676.8418066175</v>
+        <v>214051.6743287815</v>
       </c>
       <c r="I6" t="n">
-        <v>196835.6671537218</v>
+        <v>196316.5040078335</v>
       </c>
       <c r="J6" t="n">
-        <v>222487.5444701575</v>
+        <v>221968.3813242693</v>
       </c>
       <c r="K6" t="n">
-        <v>224880.6528588586</v>
+        <v>224361.4897129705</v>
       </c>
       <c r="L6" t="n">
-        <v>224880.6528588586</v>
+        <v>224361.4897129701</v>
       </c>
       <c r="M6" t="n">
-        <v>116730.1677651776</v>
+        <v>116105.0002873413</v>
       </c>
       <c r="N6" t="n">
-        <v>214676.8418066174</v>
+        <v>214051.6743287817</v>
       </c>
       <c r="O6" t="n">
-        <v>214676.8418066174</v>
+        <v>214051.6743287817</v>
       </c>
       <c r="P6" t="n">
-        <v>214676.8418066174</v>
+        <v>214051.6743287815</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>493.8328784238189</v>
+        <v>493.8328784238188</v>
       </c>
       <c r="F3" t="n">
         <v>493.8328784238188</v>
@@ -26804,13 +26804,13 @@
         <v>507.6481580096714</v>
       </c>
       <c r="G4" t="n">
-        <v>507.6481580096714</v>
+        <v>507.6481580096715</v>
       </c>
       <c r="H4" t="n">
         <v>507.6481580096714</v>
       </c>
       <c r="I4" t="n">
-        <v>613.1117569925899</v>
+        <v>613.11175699259</v>
       </c>
       <c r="J4" t="n">
         <v>613.1117569925899</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>493.8328784238189</v>
+        <v>493.8328784238188</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>105.4635989829185</v>
+        <v>105.4635989829186</v>
       </c>
       <c r="J4" t="n">
-        <v>9.146429456440501</v>
+        <v>9.146429456440444</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>393.0381295703118</v>
+        <v>393.0381295703125</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.7535728527903</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>124.598945473311</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -27475,10 +27475,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>60.89331137820062</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>11.39467600952174</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>148.6020157184214</v>
       </c>
       <c r="U3" t="n">
-        <v>187.3211276879307</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>202.427982280456</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -27545,19 +27545,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>151.245531915131</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>156.4314577072715</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>140.0552055773651</v>
+        <v>138.9649511861574</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>106.0361559802766</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>75.27356168491386</v>
       </c>
       <c r="S4" t="n">
-        <v>175.3814209824483</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129.7535728527903</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -27703,7 +27703,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>111.2317127823625</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
@@ -27712,10 +27712,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>60.89331137820062</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>11.39467600952174</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>98.85393472160148</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>186.230873296723</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>202.427982280456</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>165.4162925860556</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -27779,10 +27779,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>149.8435231650863</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>150.1552775239232</v>
       </c>
       <c r="F7" t="n">
         <v>153.8383851740741</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>76.36381607612157</v>
       </c>
       <c r="S7" t="n">
-        <v>175.3814209824483</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27833,13 +27833,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>262.0004581534328</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>226.8139940624729</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27940,19 +27940,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>111.2317127823625</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>98.72385156287997</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>96.77378210236419</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>60.89331137820062</v>
       </c>
       <c r="I9" t="n">
-        <v>11.39467600952174</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,13 +27985,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>148.6020157184214</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>187.3211276879307</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>202.427982280456</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.6762798736634</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28022,13 +28022,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>154.9286395652819</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>156.4314577072715</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>138.9649511861574</v>
       </c>
       <c r="I10" t="n">
         <v>106.0361559802766</v>
@@ -28076,10 +28076,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>227.9042484536807</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.3419121686824</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -31776,10 +31776,10 @@
         <v>354.2345128818415</v>
       </c>
       <c r="O11" t="n">
-        <v>334.4936056061557</v>
+        <v>334.4936056061556</v>
       </c>
       <c r="P11" t="n">
-        <v>285.4825536017817</v>
+        <v>285.4825536017816</v>
       </c>
       <c r="Q11" t="n">
         <v>214.385508542272</v>
@@ -31788,7 +31788,7 @@
         <v>124.7064504494079</v>
       </c>
       <c r="S11" t="n">
-        <v>45.23906217922724</v>
+        <v>45.23906217922723</v>
       </c>
       <c r="T11" t="n">
         <v>8.690466031357856</v>
@@ -31837,7 +31837,7 @@
         <v>10.25867922914386</v>
       </c>
       <c r="I12" t="n">
-        <v>36.57158580780169</v>
+        <v>36.57158580780168</v>
       </c>
       <c r="J12" t="n">
         <v>100.3552267370517</v>
@@ -31858,22 +31858,22 @@
         <v>252.7259637344991</v>
       </c>
       <c r="P12" t="n">
-        <v>202.8348666114739</v>
+        <v>202.8348666114738</v>
       </c>
       <c r="Q12" t="n">
         <v>135.5897367325172</v>
       </c>
       <c r="R12" t="n">
-        <v>65.94998327327909</v>
+        <v>65.94998327327907</v>
       </c>
       <c r="S12" t="n">
         <v>19.7300211332535</v>
       </c>
       <c r="T12" t="n">
-        <v>4.281437879919712</v>
+        <v>4.281437879919711</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06988201109771025</v>
+        <v>0.06988201109771024</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8905183053544274</v>
+        <v>0.8905183053544273</v>
       </c>
       <c r="H13" t="n">
-        <v>7.917517296696643</v>
+        <v>7.917517296696642</v>
       </c>
       <c r="I13" t="n">
         <v>26.78031412829497</v>
       </c>
       <c r="J13" t="n">
-        <v>62.95964418855802</v>
+        <v>62.95964418855801</v>
       </c>
       <c r="K13" t="n">
         <v>103.4620358402689</v>
@@ -31940,10 +31940,10 @@
         <v>107.7041412221391</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.56876464199665</v>
+        <v>74.56876464199664</v>
       </c>
       <c r="R13" t="n">
-        <v>40.04094125711816</v>
+        <v>40.04094125711815</v>
       </c>
       <c r="S13" t="n">
         <v>15.51930537604033</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>8.776876751129763</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.776876751129761</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34868,16 +34868,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>8.776876751129763</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9.146429456440488</v>
       </c>
       <c r="P4" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="L5" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8.776876751129763</v>
       </c>
       <c r="M5" t="n">
         <v>9.146429456440488</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8.776876751129761</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="O7" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>8.776876751129763</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="O8" t="n">
-        <v>8.776876751129763</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="P8" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="O9" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8.776876751129761</v>
       </c>
       <c r="Q9" t="n">
         <v>9.146429456440488</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="N10" t="n">
-        <v>8.776876751129761</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.17268309934977</v>
+        <v>95.17268309934974</v>
       </c>
       <c r="K11" t="n">
         <v>163.3958475481049</v>
       </c>
       <c r="L11" t="n">
-        <v>245.3813561854647</v>
+        <v>217.8031726381273</v>
       </c>
       <c r="M11" t="n">
-        <v>255.3036746928496</v>
+        <v>255.3036746928495</v>
       </c>
       <c r="N11" t="n">
-        <v>261.3222221252222</v>
+        <v>261.3222221252221</v>
       </c>
       <c r="O11" t="n">
-        <v>507.6481580096714</v>
+        <v>241.3038299803725</v>
       </c>
       <c r="P11" t="n">
-        <v>191.8331903208975</v>
+        <v>191.8331903208974</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.35170414312</v>
+        <v>418.2742157197566</v>
       </c>
       <c r="R11" t="n">
         <v>165.6727592267461</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J12" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K12" t="n">
-        <v>115.6972840543444</v>
+        <v>161.4467687209442</v>
       </c>
       <c r="L12" t="n">
         <v>174.5194068152939</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6481580096714</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N12" t="n">
-        <v>507.6481580096714</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O12" t="n">
-        <v>332.3021670494728</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P12" t="n">
         <v>148.5752316086701</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R12" t="n">
-        <v>95.80808363957192</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.5264985056026</v>
+        <v>11.52649850560259</v>
       </c>
       <c r="K13" t="n">
-        <v>51.21166628120208</v>
+        <v>51.21166628120207</v>
       </c>
       <c r="L13" t="n">
         <v>394.9181086585428</v>
       </c>
       <c r="M13" t="n">
-        <v>415.7566970741188</v>
+        <v>431.7787077712432</v>
       </c>
       <c r="N13" t="n">
         <v>419.9491253540708</v>
@@ -35585,10 +35585,10 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P13" t="n">
-        <v>315.4571111712424</v>
+        <v>299.4351004741181</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.20923898207108</v>
+        <v>13.20923898207107</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.17268309934974</v>
+        <v>425.2492759152378</v>
       </c>
       <c r="K14" t="n">
         <v>163.3958475481049</v>
@@ -35655,10 +35655,10 @@
         <v>217.8031726381273</v>
       </c>
       <c r="M14" t="n">
-        <v>431.1787019770983</v>
+        <v>255.3036746928495</v>
       </c>
       <c r="N14" t="n">
-        <v>507.6481580096714</v>
+        <v>261.3222221252221</v>
       </c>
       <c r="O14" t="n">
         <v>241.3038299803725</v>
@@ -35667,7 +35667,7 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.35170414312</v>
+        <v>216.4760744959304</v>
       </c>
       <c r="R14" t="n">
         <v>37.39430763468438</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K15" t="n">
-        <v>115.6972840543444</v>
+        <v>177.4772490627837</v>
       </c>
       <c r="L15" t="n">
         <v>174.5194068152939</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6481580096714</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N15" t="n">
-        <v>332.3021670494725</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O15" t="n">
-        <v>507.6481580096714</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P15" t="n">
         <v>148.5752316086701</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R15" t="n">
         <v>95.80808363957189</v>
@@ -35807,7 +35807,7 @@
         <v>77.18444156755854</v>
       </c>
       <c r="K16" t="n">
-        <v>51.21166628120207</v>
+        <v>259.5754981859639</v>
       </c>
       <c r="L16" t="n">
         <v>394.9181086585428</v>
@@ -35816,16 +35816,16 @@
         <v>431.7787077712432</v>
       </c>
       <c r="N16" t="n">
-        <v>338.2691715949904</v>
+        <v>320.6132176830602</v>
       </c>
       <c r="O16" t="n">
-        <v>388.0531493245757</v>
+        <v>69.79581657837315</v>
       </c>
       <c r="P16" t="n">
         <v>315.4571111712424</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.20923898207107</v>
+        <v>140.7586937354419</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,19 +35895,19 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N17" t="n">
-        <v>507.6481580096714</v>
+        <v>261.3222221252221</v>
       </c>
       <c r="O17" t="n">
-        <v>417.1788572646213</v>
+        <v>241.3038299803725</v>
       </c>
       <c r="P17" t="n">
         <v>191.8331903208974</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.35170414312</v>
+        <v>418.2742157197569</v>
       </c>
       <c r="R17" t="n">
-        <v>37.39430763468438</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>16.03048034183946</v>
       </c>
       <c r="J18" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K18" t="n">
-        <v>234.7590351613242</v>
+        <v>115.6972840543444</v>
       </c>
       <c r="L18" t="n">
         <v>174.5194068152939</v>
@@ -35977,16 +35977,16 @@
         <v>223.0688316784579</v>
       </c>
       <c r="O18" t="n">
-        <v>507.6481580096714</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P18" t="n">
-        <v>507.6481580096714</v>
+        <v>194.3247162752703</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R18" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K19" t="n">
-        <v>51.21166628120207</v>
+        <v>259.5754981859639</v>
       </c>
       <c r="L19" t="n">
-        <v>394.9181086585428</v>
+        <v>368.4071345837089</v>
       </c>
       <c r="M19" t="n">
-        <v>415.7566970741188</v>
+        <v>431.7787077712432</v>
       </c>
       <c r="N19" t="n">
         <v>419.9491253540708</v>
@@ -36059,7 +36059,7 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P19" t="n">
-        <v>315.4571111712424</v>
+        <v>51.92429958223428</v>
       </c>
       <c r="Q19" t="n">
         <v>13.20923898207107</v>
@@ -36202,7 +36202,7 @@
         <v>295.1156889215298</v>
       </c>
       <c r="K21" t="n">
-        <v>212.4447079803201</v>
+        <v>212.4447079803206</v>
       </c>
       <c r="L21" t="n">
         <v>174.5194068152939</v>
@@ -36284,19 +36284,19 @@
         <v>259.5754981859639</v>
       </c>
       <c r="L22" t="n">
-        <v>77.76749124942856</v>
+        <v>394.9181086585428</v>
       </c>
       <c r="M22" t="n">
-        <v>431.7787077712432</v>
+        <v>83.32784967600531</v>
       </c>
       <c r="N22" t="n">
-        <v>419.9491253540708</v>
+        <v>350.8067430320957</v>
       </c>
       <c r="O22" t="n">
         <v>388.0531493245757</v>
       </c>
       <c r="P22" t="n">
-        <v>215.0144881631434</v>
+        <v>315.4571111712424</v>
       </c>
       <c r="Q22" t="n">
         <v>140.7586937354419</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.17268309934974</v>
+        <v>425.2492759152378</v>
       </c>
       <c r="K23" t="n">
         <v>163.3958475481049</v>
@@ -36366,7 +36366,7 @@
         <v>217.8031726381273</v>
       </c>
       <c r="M23" t="n">
-        <v>613.1117569925899</v>
+        <v>255.3036746928495</v>
       </c>
       <c r="N23" t="n">
         <v>261.3222221252221</v>
@@ -36378,10 +36378,10 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q23" t="n">
-        <v>538.7905659112539</v>
+        <v>505.7908633210818</v>
       </c>
       <c r="R23" t="n">
-        <v>104.9415671527209</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K24" t="n">
-        <v>115.6972840543444</v>
+        <v>177.4772490627838</v>
       </c>
       <c r="L24" t="n">
-        <v>591.3153126261552</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M24" t="n">
         <v>211.5746350025638</v>
       </c>
       <c r="N24" t="n">
-        <v>613.1117569925899</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O24" t="n">
         <v>194.9744847344991</v>
@@ -36457,10 +36457,10 @@
         <v>148.5752316086701</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R24" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N26" t="n">
-        <v>261.3222221252221</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="O26" t="n">
         <v>241.3038299803725</v>
@@ -36615,10 +36615,10 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q26" t="n">
-        <v>505.7908633210813</v>
+        <v>282.2797800457755</v>
       </c>
       <c r="R26" t="n">
-        <v>165.6727592267461</v>
+        <v>37.39430763468438</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J27" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K27" t="n">
         <v>115.6972840543444</v>
@@ -36682,22 +36682,22 @@
         <v>174.5194068152939</v>
       </c>
       <c r="M27" t="n">
-        <v>600.2761938694664</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N27" t="n">
         <v>223.0688316784579</v>
       </c>
       <c r="O27" t="n">
-        <v>613.1117569925899</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P27" t="n">
-        <v>148.5752316086701</v>
+        <v>194.3247162752699</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R27" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>425.2492759152378</v>
       </c>
       <c r="K29" t="n">
-        <v>544.8350067260662</v>
+        <v>163.3958475481049</v>
       </c>
       <c r="L29" t="n">
         <v>217.8031726381273</v>
@@ -36852,10 +36852,10 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.35170414312</v>
+        <v>538.7905659112539</v>
       </c>
       <c r="R29" t="n">
-        <v>165.6727592267461</v>
+        <v>132.6730566365736</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J30" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K30" t="n">
-        <v>115.6972840543444</v>
+        <v>161.4467687209443</v>
       </c>
       <c r="L30" t="n">
-        <v>563.2209656821964</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M30" t="n">
         <v>211.5746350025638</v>
@@ -36925,16 +36925,16 @@
         <v>223.0688316784579</v>
       </c>
       <c r="O30" t="n">
-        <v>613.1117569925899</v>
+        <v>194.9744847344991</v>
       </c>
       <c r="P30" t="n">
         <v>148.5752316086701</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R30" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>425.2492759152378</v>
+        <v>95.17268309934974</v>
       </c>
       <c r="K32" t="n">
         <v>163.3958475481049</v>
       </c>
       <c r="L32" t="n">
-        <v>217.8031726381273</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="M32" t="n">
         <v>255.3036746928495</v>
       </c>
       <c r="N32" t="n">
-        <v>261.3222221252221</v>
+        <v>333.9999143444537</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3038299803725</v>
+        <v>613.1117569925899</v>
       </c>
       <c r="P32" t="n">
         <v>191.8331903208974</v>
       </c>
       <c r="Q32" t="n">
-        <v>505.7908633210813</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R32" t="n">
-        <v>165.6727592267461</v>
+        <v>37.39430763468438</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J33" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K33" t="n">
         <v>115.6972840543444</v>
@@ -37156,7 +37156,7 @@
         <v>174.5194068152939</v>
       </c>
       <c r="M33" t="n">
-        <v>613.1117569925899</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N33" t="n">
         <v>223.0688316784579</v>
@@ -37165,13 +37165,13 @@
         <v>194.9744847344991</v>
       </c>
       <c r="P33" t="n">
-        <v>553.8769407436371</v>
+        <v>194.3247162752699</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R33" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.17268309934974</v>
+        <v>425.2492759152378</v>
       </c>
       <c r="K35" t="n">
         <v>163.3958475481049</v>
@@ -37317,7 +37317,7 @@
         <v>255.3036746928495</v>
       </c>
       <c r="N35" t="n">
-        <v>300.2267314273687</v>
+        <v>261.3222221252221</v>
       </c>
       <c r="O35" t="n">
         <v>241.3038299803725</v>
@@ -37326,7 +37326,7 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q35" t="n">
-        <v>507.6481580096714</v>
+        <v>216.4760744959304</v>
       </c>
       <c r="R35" t="n">
         <v>37.39430763468438</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J36" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K36" t="n">
         <v>115.6972840543444</v>
       </c>
       <c r="L36" t="n">
-        <v>482.4290728082112</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M36" t="n">
         <v>211.5746350025638</v>
@@ -37402,7 +37402,7 @@
         <v>194.9744847344991</v>
       </c>
       <c r="P36" t="n">
-        <v>148.5752316086701</v>
+        <v>194.3247162752701</v>
       </c>
       <c r="Q36" t="n">
         <v>488.967983888056</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.18444156755854</v>
+        <v>11.52649850560259</v>
       </c>
       <c r="K37" t="n">
-        <v>259.5754981859639</v>
+        <v>51.21166628120207</v>
       </c>
       <c r="L37" t="n">
-        <v>77.76749124942856</v>
+        <v>394.9181086585428</v>
       </c>
       <c r="M37" t="n">
         <v>431.7787077712432</v>
@@ -37481,10 +37481,10 @@
         <v>388.0531493245757</v>
       </c>
       <c r="P37" t="n">
-        <v>215.0144881631432</v>
+        <v>299.4351004741181</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.7586937354419</v>
+        <v>13.20923898207107</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.17268309934974</v>
+        <v>389.0951946759864</v>
       </c>
       <c r="K38" t="n">
         <v>163.3958475481049</v>
@@ -37563,7 +37563,7 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q38" t="n">
-        <v>418.2742157197566</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R38" t="n">
         <v>165.6727592267461</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J39" t="n">
         <v>295.1156889215298</v>
@@ -37639,13 +37639,13 @@
         <v>194.9744847344991</v>
       </c>
       <c r="P39" t="n">
-        <v>299.2134960888077</v>
+        <v>194.3247162752699</v>
       </c>
       <c r="Q39" t="n">
         <v>488.967983888056</v>
       </c>
       <c r="R39" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,19 +37703,19 @@
         <v>77.18444156755854</v>
       </c>
       <c r="K40" t="n">
-        <v>259.5754981859639</v>
+        <v>51.21166628120207</v>
       </c>
       <c r="L40" t="n">
         <v>394.9181086585428</v>
       </c>
       <c r="M40" t="n">
-        <v>83.32784967600531</v>
+        <v>222.5492992587919</v>
       </c>
       <c r="N40" t="n">
         <v>419.9491253540708</v>
       </c>
       <c r="O40" t="n">
-        <v>318.9107670026006</v>
+        <v>388.0531493245757</v>
       </c>
       <c r="P40" t="n">
         <v>315.4571111712424</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>134.0771924014966</v>
+        <v>389.0951946759864</v>
       </c>
       <c r="K41" t="n">
         <v>163.3958475481049</v>
@@ -37800,10 +37800,10 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q41" t="n">
-        <v>507.6481580096714</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R41" t="n">
-        <v>37.39430763468438</v>
+        <v>165.6727592267461</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>174.5194068152939</v>
       </c>
       <c r="M42" t="n">
-        <v>507.6481580096714</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N42" t="n">
         <v>223.0688316784579</v>
@@ -37876,13 +37876,13 @@
         <v>194.9744847344991</v>
       </c>
       <c r="P42" t="n">
-        <v>148.5752316086701</v>
+        <v>194.3247162752699</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.5022450192465</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R42" t="n">
-        <v>6.949784167873666</v>
+        <v>95.80808363957189</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.52649850560259</v>
+        <v>77.18444156755854</v>
       </c>
       <c r="K43" t="n">
-        <v>51.21166628120207</v>
+        <v>259.5754981859639</v>
       </c>
       <c r="L43" t="n">
-        <v>394.9181086585428</v>
+        <v>295.5822009875321</v>
       </c>
       <c r="M43" t="n">
         <v>431.7787077712432</v>
@@ -37952,13 +37952,13 @@
         <v>419.9491253540708</v>
       </c>
       <c r="O43" t="n">
-        <v>388.0531493245757</v>
+        <v>69.79581657837315</v>
       </c>
       <c r="P43" t="n">
-        <v>299.4351004741181</v>
+        <v>315.4571111712424</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.20923898207107</v>
+        <v>140.7586937354419</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>425.2492759152378</v>
       </c>
       <c r="K44" t="n">
-        <v>163.3958475481049</v>
+        <v>255.5202179009151</v>
       </c>
       <c r="L44" t="n">
         <v>217.8031726381273</v>
@@ -38037,7 +38037,7 @@
         <v>191.8331903208974</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.4760744959304</v>
+        <v>124.35170414312</v>
       </c>
       <c r="R44" t="n">
         <v>37.39430763468438</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.03048034183946</v>
       </c>
       <c r="J45" t="n">
-        <v>48.98598793705172</v>
+        <v>295.1156889215298</v>
       </c>
       <c r="K45" t="n">
         <v>115.6972840543444</v>
       </c>
       <c r="L45" t="n">
-        <v>311.8470891302675</v>
+        <v>174.5194068152939</v>
       </c>
       <c r="M45" t="n">
-        <v>507.6481580096714</v>
+        <v>211.5746350025638</v>
       </c>
       <c r="N45" t="n">
-        <v>507.6481580096714</v>
+        <v>223.0688316784579</v>
       </c>
       <c r="O45" t="n">
         <v>194.9744847344991</v>
       </c>
       <c r="P45" t="n">
-        <v>148.5752316086701</v>
+        <v>194.3247162752699</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.8971182276785</v>
+        <v>488.967983888056</v>
       </c>
       <c r="R45" t="n">
         <v>95.80808363957189</v>
@@ -38177,13 +38177,13 @@
         <v>77.18444156755854</v>
       </c>
       <c r="K46" t="n">
-        <v>259.5754981859639</v>
+        <v>105.5150693577588</v>
       </c>
       <c r="L46" t="n">
         <v>394.9181086585428</v>
       </c>
       <c r="M46" t="n">
-        <v>277.7182789430381</v>
+        <v>431.7787077712432</v>
       </c>
       <c r="N46" t="n">
         <v>419.9491253540708</v>
